--- a/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.996215607486999</v>
+        <v>0.9962156074869992</v>
       </c>
       <c r="D2">
         <v>1.014797135660524</v>
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00265905033767</v>
+        <v>1.002659050337671</v>
       </c>
       <c r="D3">
         <v>1.01955656902455</v>
@@ -468,7 +468,7 @@
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.010967087808103</v>
+        <v>1.010967087808104</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.045571757283244</v>
       </c>
       <c r="J3">
-        <v>1.023077488501417</v>
+        <v>1.023077488501418</v>
       </c>
       <c r="K3">
         <v>1.029945188500507</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006708165865156</v>
+        <v>1.006708165865155</v>
       </c>
       <c r="D4">
-        <v>1.022549222263848</v>
+        <v>1.022549222263847</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.015361043701949</v>
+        <v>1.015361043701948</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>1.025941818834077</v>
       </c>
       <c r="K4">
-        <v>1.032382907202184</v>
+        <v>1.032382907202183</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.025277543218082</v>
+        <v>1.025277543218081</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.023787481163782</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
         <v>1.017179589195579</v>
@@ -559,7 +559,7 @@
         <v>1.033389423167269</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
         <v>1.026855485256962</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008662763269726</v>
+        <v>1.008662763269725</v>
       </c>
       <c r="D6">
-        <v>1.023994253230537</v>
+        <v>1.023994253230536</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
         <v>1.017483293208975</v>
@@ -591,13 +591,13 @@
         <v>1.047693585925555</v>
       </c>
       <c r="J6">
-        <v>1.027322714384319</v>
+        <v>1.027322714384318</v>
       </c>
       <c r="K6">
         <v>1.033557372479022</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
         <v>1.027118924509854</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006730651857207</v>
+        <v>1.006730651857206</v>
       </c>
       <c r="D7">
-        <v>1.022565844705399</v>
+        <v>1.022565844705398</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
         <v>1.015385453865031</v>
@@ -635,7 +635,7 @@
         <v>1.032396427127685</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
         <v>1.025298729361519</v>
@@ -649,28 +649,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9984190106871395</v>
+        <v>0.9984190106871403</v>
       </c>
       <c r="D8">
-        <v>1.016424240436393</v>
+        <v>1.016424240436394</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.006369280573919</v>
+        <v>1.00636928057392</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044057959384701</v>
+        <v>1.044057959384702</v>
       </c>
       <c r="J8">
-        <v>1.020073173693088</v>
+        <v>1.020073173693089</v>
       </c>
       <c r="K8">
-        <v>1.027386237568001</v>
+        <v>1.027386237568002</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.982779684503207</v>
+        <v>0.9827796845032064</v>
       </c>
       <c r="D9">
-        <v>1.004887153772201</v>
+        <v>1.0048871537722</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9894356054128216</v>
+        <v>0.9894356054128206</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038381110152967</v>
+        <v>1.038381110152966</v>
       </c>
       <c r="J9">
-        <v>1.008955542802555</v>
+        <v>1.008955542802554</v>
       </c>
       <c r="K9">
         <v>1.017901434840473</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208834082</v>
       </c>
       <c r="M9">
-        <v>1.002702439977661</v>
+        <v>1.00270243997766</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9715726907164378</v>
+        <v>0.971572690716438</v>
       </c>
       <c r="D10">
-        <v>0.9966399058052892</v>
+        <v>0.9966399058052894</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>0.9773210275394016</v>
+        <v>0.9773210275394023</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.034238460292706</v>
       </c>
       <c r="J10">
-        <v>1.000961409030034</v>
+        <v>1.000961409030035</v>
       </c>
       <c r="K10">
         <v>1.011070093971143</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9921121973838208</v>
+        <v>0.9921121973838214</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9665054399504012</v>
+        <v>0.9665054399504006</v>
       </c>
       <c r="D11">
-        <v>0.99291747473523</v>
+        <v>0.9929174747352291</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9718477752207745</v>
+        <v>0.9718477752207738</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.032348566367654</v>
       </c>
       <c r="J11">
-        <v>0.9973412096953769</v>
+        <v>0.9973412096953762</v>
       </c>
       <c r="K11">
-        <v>1.007974204626853</v>
+        <v>1.007974204626852</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9873208734146089</v>
+        <v>0.9873208734146086</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9645881393537857</v>
+        <v>0.9645881393537854</v>
       </c>
       <c r="D12">
-        <v>0.9915101705507764</v>
+        <v>0.9915101705507762</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9697774737373267</v>
+        <v>0.9697774737373268</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,13 +819,13 @@
         <v>1.031631050105681</v>
       </c>
       <c r="J12">
-        <v>0.9959706628066093</v>
+        <v>0.9959706628066088</v>
       </c>
       <c r="K12">
         <v>1.006801850035932</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
         <v>0.9855075353798299</v>
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9650010449791561</v>
+        <v>0.965001044979155</v>
       </c>
       <c r="D13">
-        <v>0.991813189435673</v>
+        <v>0.9918131894356721</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.9702233020447035</v>
+        <v>0.9702233020447024</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031785681257921</v>
+        <v>1.03178568125792</v>
       </c>
       <c r="J13">
-        <v>0.9962658540928484</v>
+        <v>0.9962658540928475</v>
       </c>
       <c r="K13">
-        <v>1.007054367261725</v>
+        <v>1.007054367261724</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9858980717146164</v>
+        <v>0.9858980717146155</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9663476891003873</v>
+        <v>0.9663476891003849</v>
       </c>
       <c r="D14">
-        <v>0.9928016606906783</v>
+        <v>0.9928016606906761</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9716774235221646</v>
+        <v>0.9716774235221624</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032289579726356</v>
+        <v>1.032289579726355</v>
       </c>
       <c r="J14">
-        <v>0.9972284595191401</v>
+        <v>0.9972284595191376</v>
       </c>
       <c r="K14">
-        <v>1.007877764956255</v>
+        <v>1.007877764956252</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9871716852752435</v>
+        <v>0.9871716852752416</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9671726584680139</v>
+        <v>0.9671726584680128</v>
       </c>
       <c r="D15">
-        <v>0.9934073665489772</v>
+        <v>0.9934073665489761</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9725683148272845</v>
+        <v>0.9725683148272831</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032597956143505</v>
       </c>
       <c r="J15">
-        <v>0.9978180638929441</v>
+        <v>0.9978180638929429</v>
       </c>
       <c r="K15">
-        <v>1.008382064754348</v>
+        <v>1.008382064754347</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9879518574487598</v>
+        <v>0.9879518574487586</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9719042305360147</v>
+        <v>0.9719042305360143</v>
       </c>
       <c r="D16">
-        <v>0.9968836066371386</v>
+        <v>0.9968836066371383</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9776792185335091</v>
+        <v>0.9776792185335087</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9924256231886217</v>
+        <v>0.9924256231886213</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,25 +991,25 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9748128645059094</v>
+        <v>0.9748128645059085</v>
       </c>
       <c r="D17">
-        <v>0.9990223800924377</v>
+        <v>0.9990223800924369</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9808221547731641</v>
+        <v>0.9808221547731634</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035441710249723</v>
+        <v>1.035441710249722</v>
       </c>
       <c r="J17">
-        <v>1.003274581566524</v>
+        <v>1.003274581566523</v>
       </c>
       <c r="K17">
         <v>1.013047572267262</v>
@@ -1018,7 +1018,7 @@
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9951750096326858</v>
+        <v>0.9951750096326851</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,7 +1029,7 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9764889317014352</v>
+        <v>0.9764889317014362</v>
       </c>
       <c r="D18">
         <v>1.000255429687077</v>
@@ -1038,25 +1038,25 @@
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9826336488352805</v>
+        <v>0.9826336488352813</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036062427976306</v>
+        <v>1.036062427976307</v>
       </c>
       <c r="J18">
-        <v>1.004470559085605</v>
+        <v>1.004470559085606</v>
       </c>
       <c r="K18">
         <v>1.014069755538074</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>0.9967590360632135</v>
+        <v>0.9967590360632146</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1073,7 +1073,7 @@
         <v>1.000673468836406</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="F19">
         <v>0.9832477242887375</v>
@@ -1088,10 +1088,10 @@
         <v>1.004875841468501</v>
       </c>
       <c r="K19">
-        <v>1.014416106377162</v>
+        <v>1.014416106377161</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816591</v>
       </c>
       <c r="M19">
         <v>0.9972958936009386</v>
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9745029345543934</v>
+        <v>0.9745029345543961</v>
       </c>
       <c r="D20">
-        <v>0.9987944186568206</v>
+        <v>0.9987944186568234</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9804872160493113</v>
+        <v>0.9804872160493137</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035326801298949</v>
+        <v>1.03532680129895</v>
       </c>
       <c r="J20">
-        <v>1.003053383419648</v>
+        <v>1.00305338341965</v>
       </c>
       <c r="K20">
-        <v>1.012858499935846</v>
+        <v>1.012858499935849</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9948820770159356</v>
+        <v>0.994882077015938</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9659521296326437</v>
+        <v>0.9659521296326427</v>
       </c>
       <c r="D21">
-        <v>0.9925112767395704</v>
+        <v>0.9925112767395694</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148893</v>
       </c>
       <c r="F21">
-        <v>0.9712502772963256</v>
+        <v>0.9712502772963247</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032141632166941</v>
+        <v>1.03214163216694</v>
       </c>
       <c r="J21">
-        <v>0.9969457269405152</v>
+        <v>0.9969457269405142</v>
       </c>
       <c r="K21">
-        <v>1.007635927904037</v>
+        <v>1.007635927904036</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981063</v>
       </c>
       <c r="M21">
-        <v>0.9867975896860661</v>
+        <v>0.9867975896860651</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9603711431635057</v>
+        <v>0.9603711431635039</v>
       </c>
       <c r="D22">
-        <v>0.9884172162182094</v>
+        <v>0.9884172162182079</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9652250548314294</v>
+        <v>0.9652250548314278</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.030048524259791</v>
       </c>
       <c r="J22">
-        <v>0.992954898139883</v>
+        <v>0.9929548981398816</v>
       </c>
       <c r="K22">
-        <v>1.004221676207184</v>
+        <v>1.004221676207183</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.981518387496284</v>
+        <v>0.9815183874962825</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,13 +1222,13 @@
         <v>0.9633501907727554</v>
       </c>
       <c r="D23">
-        <v>0.9906018610246261</v>
+        <v>0.9906018610246262</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9684409058220369</v>
+        <v>0.9684409058220375</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>1.031167094539736</v>
       </c>
       <c r="J23">
-        <v>0.9950855320952637</v>
+        <v>0.9950855320952636</v>
       </c>
       <c r="K23">
         <v>1.006044636182889</v>
@@ -1246,7 +1246,7 @@
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9843365885584984</v>
+        <v>0.9843365885584989</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9746430416660115</v>
+        <v>0.974643041666012</v>
       </c>
       <c r="D24">
-        <v>0.9988974691650779</v>
+        <v>0.9988974691650785</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011822</v>
       </c>
       <c r="F24">
-        <v>0.9806386273558374</v>
+        <v>0.9806386273558381</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03537875203336</v>
+        <v>1.035378752033361</v>
       </c>
       <c r="J24">
         <v>1.003153380052292</v>
       </c>
       <c r="K24">
-        <v>1.012943974184173</v>
+        <v>1.012943974184174</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442542</v>
       </c>
       <c r="M24">
-        <v>0.9950145011606568</v>
+        <v>0.9950145011606577</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9869514185685776</v>
+        <v>0.9869514185685762</v>
       </c>
       <c r="D25">
-        <v>1.007961743333823</v>
+        <v>1.007961743333821</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="F25">
-        <v>0.9939491006882293</v>
+        <v>0.9939491006882282</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039908390733846</v>
+        <v>1.039908390733845</v>
       </c>
       <c r="J25">
-        <v>1.011926043065001</v>
+        <v>1.011926043065</v>
       </c>
       <c r="K25">
-        <v>1.020437708091292</v>
+        <v>1.020437708091291</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9598754494005832</v>
       </c>
       <c r="M25">
-        <v>1.006642080974723</v>
+        <v>1.006642080974721</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9962156074869992</v>
+        <v>0.996215607486999</v>
       </c>
       <c r="D2">
         <v>1.014797135660524</v>
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002659050337671</v>
+        <v>1.00265905033767</v>
       </c>
       <c r="D3">
         <v>1.01955656902455</v>
@@ -468,7 +468,7 @@
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.010967087808104</v>
+        <v>1.010967087808103</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.045571757283244</v>
       </c>
       <c r="J3">
-        <v>1.023077488501418</v>
+        <v>1.023077488501417</v>
       </c>
       <c r="K3">
         <v>1.029945188500507</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006708165865155</v>
+        <v>1.006708165865156</v>
       </c>
       <c r="D4">
-        <v>1.022549222263847</v>
+        <v>1.022549222263848</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.015361043701948</v>
+        <v>1.015361043701949</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>1.025941818834077</v>
       </c>
       <c r="K4">
-        <v>1.032382907202183</v>
+        <v>1.032382907202184</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.025277543218081</v>
+        <v>1.025277543218082</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.023787481163782</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
         <v>1.017179589195579</v>
@@ -559,7 +559,7 @@
         <v>1.033389423167269</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
         <v>1.026855485256962</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008662763269725</v>
+        <v>1.008662763269726</v>
       </c>
       <c r="D6">
-        <v>1.023994253230536</v>
+        <v>1.023994253230537</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
         <v>1.017483293208975</v>
@@ -591,13 +591,13 @@
         <v>1.047693585925555</v>
       </c>
       <c r="J6">
-        <v>1.027322714384318</v>
+        <v>1.027322714384319</v>
       </c>
       <c r="K6">
         <v>1.033557372479022</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
         <v>1.027118924509854</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006730651857206</v>
+        <v>1.006730651857207</v>
       </c>
       <c r="D7">
-        <v>1.022565844705398</v>
+        <v>1.022565844705399</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
         <v>1.015385453865031</v>
@@ -635,7 +635,7 @@
         <v>1.032396427127685</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
         <v>1.025298729361519</v>
@@ -649,28 +649,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9984190106871403</v>
+        <v>0.9984190106871395</v>
       </c>
       <c r="D8">
-        <v>1.016424240436394</v>
+        <v>1.016424240436393</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.00636928057392</v>
+        <v>1.006369280573919</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044057959384702</v>
+        <v>1.044057959384701</v>
       </c>
       <c r="J8">
-        <v>1.020073173693089</v>
+        <v>1.020073173693088</v>
       </c>
       <c r="K8">
-        <v>1.027386237568002</v>
+        <v>1.027386237568001</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9827796845032064</v>
+        <v>0.982779684503207</v>
       </c>
       <c r="D9">
-        <v>1.0048871537722</v>
+        <v>1.004887153772201</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9894356054128206</v>
+        <v>0.9894356054128216</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038381110152966</v>
+        <v>1.038381110152967</v>
       </c>
       <c r="J9">
-        <v>1.008955542802554</v>
+        <v>1.008955542802555</v>
       </c>
       <c r="K9">
         <v>1.017901434840473</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834082</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.00270243997766</v>
+        <v>1.002702439977661</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.971572690716438</v>
+        <v>0.9715726907164378</v>
       </c>
       <c r="D10">
-        <v>0.9966399058052894</v>
+        <v>0.9966399058052892</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9773210275394023</v>
+        <v>0.9773210275394016</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.034238460292706</v>
       </c>
       <c r="J10">
-        <v>1.000961409030035</v>
+        <v>1.000961409030034</v>
       </c>
       <c r="K10">
         <v>1.011070093971143</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9921121973838214</v>
+        <v>0.9921121973838208</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9665054399504006</v>
+        <v>0.9665054399504012</v>
       </c>
       <c r="D11">
-        <v>0.9929174747352291</v>
+        <v>0.99291747473523</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9718477752207738</v>
+        <v>0.9718477752207745</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.032348566367654</v>
       </c>
       <c r="J11">
-        <v>0.9973412096953762</v>
+        <v>0.9973412096953769</v>
       </c>
       <c r="K11">
-        <v>1.007974204626852</v>
+        <v>1.007974204626853</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9873208734146086</v>
+        <v>0.9873208734146089</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9645881393537854</v>
+        <v>0.9645881393537857</v>
       </c>
       <c r="D12">
-        <v>0.9915101705507762</v>
+        <v>0.9915101705507764</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9697774737373268</v>
+        <v>0.9697774737373267</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,13 +819,13 @@
         <v>1.031631050105681</v>
       </c>
       <c r="J12">
-        <v>0.9959706628066088</v>
+        <v>0.9959706628066093</v>
       </c>
       <c r="K12">
         <v>1.006801850035932</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252508</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
         <v>0.9855075353798299</v>
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.965001044979155</v>
+        <v>0.9650010449791561</v>
       </c>
       <c r="D13">
-        <v>0.9918131894356721</v>
+        <v>0.991813189435673</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9702233020447024</v>
+        <v>0.9702233020447035</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03178568125792</v>
+        <v>1.031785681257921</v>
       </c>
       <c r="J13">
-        <v>0.9962658540928475</v>
+        <v>0.9962658540928484</v>
       </c>
       <c r="K13">
-        <v>1.007054367261724</v>
+        <v>1.007054367261725</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9858980717146155</v>
+        <v>0.9858980717146164</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9663476891003849</v>
+        <v>0.9663476891003873</v>
       </c>
       <c r="D14">
-        <v>0.9928016606906761</v>
+        <v>0.9928016606906783</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9716774235221624</v>
+        <v>0.9716774235221646</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032289579726355</v>
+        <v>1.032289579726356</v>
       </c>
       <c r="J14">
-        <v>0.9972284595191376</v>
+        <v>0.9972284595191401</v>
       </c>
       <c r="K14">
-        <v>1.007877764956252</v>
+        <v>1.007877764956255</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9871716852752416</v>
+        <v>0.9871716852752435</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9671726584680128</v>
+        <v>0.9671726584680139</v>
       </c>
       <c r="D15">
-        <v>0.9934073665489761</v>
+        <v>0.9934073665489772</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9725683148272831</v>
+        <v>0.9725683148272845</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032597956143505</v>
       </c>
       <c r="J15">
-        <v>0.9978180638929429</v>
+        <v>0.9978180638929441</v>
       </c>
       <c r="K15">
-        <v>1.008382064754347</v>
+        <v>1.008382064754348</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9879518574487586</v>
+        <v>0.9879518574487598</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9719042305360143</v>
+        <v>0.9719042305360147</v>
       </c>
       <c r="D16">
-        <v>0.9968836066371383</v>
+        <v>0.9968836066371386</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9776792185335087</v>
+        <v>0.9776792185335091</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9924256231886213</v>
+        <v>0.9924256231886217</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,25 +991,25 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9748128645059085</v>
+        <v>0.9748128645059094</v>
       </c>
       <c r="D17">
-        <v>0.9990223800924369</v>
+        <v>0.9990223800924377</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9808221547731634</v>
+        <v>0.9808221547731641</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035441710249722</v>
+        <v>1.035441710249723</v>
       </c>
       <c r="J17">
-        <v>1.003274581566523</v>
+        <v>1.003274581566524</v>
       </c>
       <c r="K17">
         <v>1.013047572267262</v>
@@ -1018,7 +1018,7 @@
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9951750096326851</v>
+        <v>0.9951750096326858</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,7 +1029,7 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9764889317014362</v>
+        <v>0.9764889317014352</v>
       </c>
       <c r="D18">
         <v>1.000255429687077</v>
@@ -1038,25 +1038,25 @@
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9826336488352813</v>
+        <v>0.9826336488352805</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036062427976307</v>
+        <v>1.036062427976306</v>
       </c>
       <c r="J18">
-        <v>1.004470559085606</v>
+        <v>1.004470559085605</v>
       </c>
       <c r="K18">
         <v>1.014069755538074</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9967590360632146</v>
+        <v>0.9967590360632135</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1073,7 +1073,7 @@
         <v>1.000673468836406</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
         <v>0.9832477242887375</v>
@@ -1088,10 +1088,10 @@
         <v>1.004875841468501</v>
       </c>
       <c r="K19">
-        <v>1.014416106377161</v>
+        <v>1.014416106377162</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
         <v>0.9972958936009386</v>
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9745029345543961</v>
+        <v>0.9745029345543934</v>
       </c>
       <c r="D20">
-        <v>0.9987944186568234</v>
+        <v>0.9987944186568206</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9804872160493137</v>
+        <v>0.9804872160493113</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03532680129895</v>
+        <v>1.035326801298949</v>
       </c>
       <c r="J20">
-        <v>1.00305338341965</v>
+        <v>1.003053383419648</v>
       </c>
       <c r="K20">
-        <v>1.012858499935849</v>
+        <v>1.012858499935846</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.994882077015938</v>
+        <v>0.9948820770159356</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9659521296326427</v>
+        <v>0.9659521296326437</v>
       </c>
       <c r="D21">
-        <v>0.9925112767395694</v>
+        <v>0.9925112767395704</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148893</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9712502772963247</v>
+        <v>0.9712502772963256</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03214163216694</v>
+        <v>1.032141632166941</v>
       </c>
       <c r="J21">
-        <v>0.9969457269405142</v>
+        <v>0.9969457269405152</v>
       </c>
       <c r="K21">
-        <v>1.007635927904036</v>
+        <v>1.007635927904037</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981063</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9867975896860651</v>
+        <v>0.9867975896860661</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9603711431635039</v>
+        <v>0.9603711431635057</v>
       </c>
       <c r="D22">
-        <v>0.9884172162182079</v>
+        <v>0.9884172162182094</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9652250548314278</v>
+        <v>0.9652250548314294</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.030048524259791</v>
       </c>
       <c r="J22">
-        <v>0.9929548981398816</v>
+        <v>0.992954898139883</v>
       </c>
       <c r="K22">
-        <v>1.004221676207183</v>
+        <v>1.004221676207184</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9815183874962825</v>
+        <v>0.981518387496284</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,13 +1222,13 @@
         <v>0.9633501907727554</v>
       </c>
       <c r="D23">
-        <v>0.9906018610246262</v>
+        <v>0.9906018610246261</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9684409058220375</v>
+        <v>0.9684409058220369</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>1.031167094539736</v>
       </c>
       <c r="J23">
-        <v>0.9950855320952636</v>
+        <v>0.9950855320952637</v>
       </c>
       <c r="K23">
         <v>1.006044636182889</v>
@@ -1246,7 +1246,7 @@
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9843365885584989</v>
+        <v>0.9843365885584984</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.974643041666012</v>
+        <v>0.9746430416660115</v>
       </c>
       <c r="D24">
-        <v>0.9988974691650785</v>
+        <v>0.9988974691650779</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011822</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9806386273558381</v>
+        <v>0.9806386273558374</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035378752033361</v>
+        <v>1.03537875203336</v>
       </c>
       <c r="J24">
         <v>1.003153380052292</v>
       </c>
       <c r="K24">
-        <v>1.012943974184174</v>
+        <v>1.012943974184173</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442542</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9950145011606577</v>
+        <v>0.9950145011606568</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9869514185685762</v>
+        <v>0.9869514185685776</v>
       </c>
       <c r="D25">
-        <v>1.007961743333821</v>
+        <v>1.007961743333823</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9939491006882282</v>
+        <v>0.9939491006882293</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039908390733845</v>
+        <v>1.039908390733846</v>
       </c>
       <c r="J25">
-        <v>1.011926043065</v>
+        <v>1.011926043065001</v>
       </c>
       <c r="K25">
-        <v>1.020437708091291</v>
+        <v>1.020437708091292</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.006642080974721</v>
+        <v>1.006642080974723</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
@@ -418,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.996215607486999</v>
+        <v>0.9962196634700411</v>
       </c>
       <c r="D2">
-        <v>1.014797135660524</v>
+        <v>1.014800708297224</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.003981214335097</v>
+        <v>1.00398482482893</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043266675351364</v>
+        <v>1.043268753136083</v>
       </c>
       <c r="J2">
-        <v>1.018510101280289</v>
+        <v>1.018514034677618</v>
       </c>
       <c r="K2">
-        <v>1.026054101253259</v>
+        <v>1.02605762592533</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.015385361775442</v>
+        <v>1.015388922471199</v>
+      </c>
+      <c r="N2">
+        <v>1.014466535197055</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00265905033767</v>
+        <v>1.002659411264753</v>
       </c>
       <c r="D3">
-        <v>1.01955656902455</v>
+        <v>1.019557223935615</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.010967087808103</v>
+        <v>1.010967532483233</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045571757283244</v>
+        <v>1.045572115667224</v>
       </c>
       <c r="J3">
-        <v>1.023077488501417</v>
+        <v>1.023077839660144</v>
       </c>
       <c r="K3">
-        <v>1.029945188500507</v>
+        <v>1.02994583542681</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.021461539785347</v>
+        <v>1.021461978923568</v>
+      </c>
+      <c r="N3">
+        <v>1.017604346386064</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006708165865156</v>
+        <v>1.006706241897832</v>
       </c>
       <c r="D4">
-        <v>1.022549222263848</v>
+        <v>1.022548069000759</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.015361043701949</v>
+        <v>1.015359537319363</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047005728847857</v>
+        <v>1.047005020015485</v>
       </c>
       <c r="J4">
-        <v>1.025941818834077</v>
+        <v>1.02593994320113</v>
       </c>
       <c r="K4">
-        <v>1.032382907202184</v>
+        <v>1.032381767110538</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.025277543218082</v>
+        <v>1.025276054342343</v>
+      </c>
+      <c r="N4">
+        <v>1.019571043476268</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008383096497064</v>
+        <v>1.008380235299274</v>
       </c>
       <c r="D5">
-        <v>1.023787481163782</v>
+        <v>1.023785585379925</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.017179589195579</v>
+        <v>1.017177283955419</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047595346541683</v>
+        <v>1.047594199066999</v>
       </c>
       <c r="J5">
-        <v>1.02712520798948</v>
+        <v>1.027122416400239</v>
       </c>
       <c r="K5">
-        <v>1.033389423167269</v>
+        <v>1.033387548432208</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.026855485256962</v>
+        <v>1.026853206023094</v>
+      </c>
+      <c r="N5">
+        <v>1.02038330291254</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008662763269726</v>
+        <v>1.008659746019831</v>
       </c>
       <c r="D6">
-        <v>1.023994253230537</v>
+        <v>1.023992233768473</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.017483293208975</v>
+        <v>1.017480855037047</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047693585925555</v>
+        <v>1.047692365365322</v>
       </c>
       <c r="J6">
-        <v>1.027322714384319</v>
+        <v>1.027319770141252</v>
       </c>
       <c r="K6">
-        <v>1.033557372479022</v>
+        <v>1.0335553753318</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.027118924509854</v>
+        <v>1.027116513705685</v>
+      </c>
+      <c r="N6">
+        <v>1.020518851685331</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006730651857207</v>
+        <v>1.006728715277405</v>
       </c>
       <c r="D7">
-        <v>1.022565844705399</v>
+        <v>1.022564681453242</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.015385453865031</v>
+        <v>1.015383936726544</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047013658602248</v>
+        <v>1.047012943870411</v>
       </c>
       <c r="J7">
-        <v>1.025957711669282</v>
+        <v>1.025955823720001</v>
       </c>
       <c r="K7">
-        <v>1.032396427127685</v>
+        <v>1.032395277156086</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.025298729361519</v>
+        <v>1.025297229847933</v>
+      </c>
+      <c r="N7">
+        <v>1.019581953167296</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9984190106871395</v>
+        <v>0.9984217946436064</v>
       </c>
       <c r="D8">
-        <v>1.016424240436393</v>
+        <v>1.016426809561245</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.006369280573919</v>
+        <v>1.006371799738824</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044057959384701</v>
+        <v>1.044059446164709</v>
       </c>
       <c r="J8">
-        <v>1.020073173693088</v>
+        <v>1.020075876542024</v>
       </c>
       <c r="K8">
-        <v>1.027386237568001</v>
+        <v>1.027388773286782</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.01746366160754</v>
+        <v>1.017466147189102</v>
+      </c>
+      <c r="N8">
+        <v>1.01554059955284</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.982779684503207</v>
+        <v>0.9827917043309179</v>
       </c>
       <c r="D9">
-        <v>1.004887153772201</v>
+        <v>1.004896985901747</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9894356054128216</v>
+        <v>0.9894460845323747</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038381110152967</v>
+        <v>1.038386866662838</v>
       </c>
       <c r="J9">
-        <v>1.008955542802555</v>
+        <v>1.008967116986967</v>
       </c>
       <c r="K9">
-        <v>1.017901434840473</v>
+        <v>1.017911109436131</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.002702439977661</v>
+        <v>1.002712744374153</v>
+      </c>
+      <c r="N9">
+        <v>1.007896744207002</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9715726907164378</v>
+        <v>0.9715916575126168</v>
       </c>
       <c r="D10">
-        <v>0.9966399058052892</v>
+        <v>0.9966551632792204</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9773210275394016</v>
+        <v>0.9773375497169986</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034238460292706</v>
+        <v>1.034247395845104</v>
       </c>
       <c r="J10">
-        <v>1.000961409030034</v>
+        <v>1.000979559032638</v>
       </c>
       <c r="K10">
-        <v>1.011070093971143</v>
+        <v>1.011085073549567</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9921121973838208</v>
+        <v>0.9921284028554961</v>
+      </c>
+      <c r="N10">
+        <v>1.002395311014115</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9665054399504012</v>
+        <v>0.9665276499703509</v>
       </c>
       <c r="D11">
-        <v>0.99291747473523</v>
+        <v>0.9929352533020935</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9718477752207745</v>
+        <v>0.971867135195947</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032348566367654</v>
+        <v>1.032358976596066</v>
       </c>
       <c r="J11">
-        <v>0.9973412096953769</v>
+        <v>0.9973624012991278</v>
       </c>
       <c r="K11">
-        <v>1.007974204626853</v>
+        <v>1.007991641631763</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9873208734146089</v>
+        <v>0.9873398398869218</v>
+      </c>
+      <c r="N11">
+        <v>0.9999029060152828</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9645881393537857</v>
+        <v>0.9646115943151818</v>
       </c>
       <c r="D12">
-        <v>0.9915101705507764</v>
+        <v>0.9915289148235324</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9697774737373267</v>
+        <v>0.9697979258366943</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031631050105681</v>
+        <v>1.031642024811153</v>
       </c>
       <c r="J12">
-        <v>0.9959706628066093</v>
+        <v>0.9959930171979321</v>
       </c>
       <c r="K12">
-        <v>1.006801850035932</v>
+        <v>1.006820227091132</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9855075353798299</v>
+        <v>0.9855275627255619</v>
+      </c>
+      <c r="N12">
+        <v>0.9989591827295544</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9650010449791561</v>
+        <v>0.9650242309857718</v>
       </c>
       <c r="D13">
-        <v>0.991813189435673</v>
+        <v>0.9918317251757243</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9702233020447035</v>
+        <v>0.9702435180715846</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031785681257921</v>
+        <v>1.031796534089377</v>
       </c>
       <c r="J13">
-        <v>0.9962658540928484</v>
+        <v>0.9962879575006061</v>
       </c>
       <c r="K13">
-        <v>1.007054367261725</v>
+        <v>1.007072541383142</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9858980717146164</v>
+        <v>0.9859178698223174</v>
+      </c>
+      <c r="N13">
+        <v>0.9991624499104026</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9663476891003873</v>
+        <v>0.9663700011746288</v>
       </c>
       <c r="D14">
-        <v>0.9928016606906783</v>
+        <v>0.9928195184642873</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9716774235221646</v>
+        <v>0.971696872965737</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032289579726356</v>
+        <v>1.032300036261012</v>
       </c>
       <c r="J14">
-        <v>0.9972284595191401</v>
+        <v>0.9972497465416954</v>
       </c>
       <c r="K14">
-        <v>1.007877764956255</v>
+        <v>1.007895279089896</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9871716852752435</v>
+        <v>0.9871907386911041</v>
+      </c>
+      <c r="N14">
+        <v>0.9998252718981935</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9671726584680139</v>
+        <v>0.9671944375811209</v>
       </c>
       <c r="D15">
-        <v>0.9934073665489772</v>
+        <v>0.9934248105947818</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9725683148272845</v>
+        <v>0.9725872971528999</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032597956143505</v>
+        <v>1.032608170786381</v>
       </c>
       <c r="J15">
-        <v>0.9978180638929441</v>
+        <v>0.9978388524116942</v>
       </c>
       <c r="K15">
-        <v>1.008382064754348</v>
+        <v>1.008399175962544</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9879518574487598</v>
+        <v>0.9879704568594986</v>
+      </c>
+      <c r="N15">
+        <v>1.000231238293732</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9719042305360147</v>
+        <v>0.9719229874468217</v>
       </c>
       <c r="D16">
-        <v>0.9968836066371386</v>
+        <v>0.9968987006964704</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9776792185335091</v>
+        <v>0.977695557427004</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034361771731248</v>
+        <v>1.03437061164294</v>
       </c>
       <c r="J16">
-        <v>1.001198160890618</v>
+        <v>1.001216113436469</v>
       </c>
       <c r="K16">
-        <v>1.011272513477653</v>
+        <v>1.011287333601318</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9924256231886217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9924416501159637</v>
+      </c>
+      <c r="N16">
+        <v>1.002558287737596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9748128645059094</v>
+        <v>0.9748297918542188</v>
       </c>
       <c r="D17">
-        <v>0.9990223800924377</v>
+        <v>0.999036048340419</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9808221547731641</v>
+        <v>0.9808368978584013</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035441710249723</v>
+        <v>1.035449715396209</v>
       </c>
       <c r="J17">
-        <v>1.003274581566524</v>
+        <v>1.003290809690263</v>
       </c>
       <c r="K17">
-        <v>1.013047572267262</v>
+        <v>1.013061000257309</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9951750096326858</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9951894808815158</v>
+      </c>
+      <c r="N17">
+        <v>1.003987551361799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9764889317014352</v>
+        <v>0.9765048142100583</v>
       </c>
       <c r="D18">
-        <v>1.000255429687077</v>
+        <v>1.000268282607859</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9826336488352805</v>
+        <v>0.982647482080154</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036062427976306</v>
+        <v>1.036069955537215</v>
       </c>
       <c r="J18">
-        <v>1.004470559085605</v>
+        <v>1.004485799834603</v>
       </c>
       <c r="K18">
-        <v>1.014069755538074</v>
+        <v>1.014082386750906</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9967590360632135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9967726194334904</v>
+      </c>
+      <c r="N18">
+        <v>1.004810680097391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9770570332835368</v>
+        <v>0.9770725631768776</v>
       </c>
       <c r="D19">
-        <v>1.000673468836406</v>
+        <v>1.000686046425168</v>
       </c>
       <c r="E19">
         <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9832477242887375</v>
+        <v>0.9832612507249461</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036272548475323</v>
+        <v>1.036279914717722</v>
       </c>
       <c r="J19">
-        <v>1.004875841468501</v>
+        <v>1.004890748571778</v>
       </c>
       <c r="K19">
-        <v>1.014416106377162</v>
+        <v>1.014428468405054</v>
       </c>
       <c r="L19">
         <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9972958936009386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.997309177417364</v>
+      </c>
+      <c r="N19">
+        <v>1.005089597497291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9745029345543934</v>
+        <v>0.9745200558564661</v>
       </c>
       <c r="D20">
-        <v>0.9987944186568206</v>
+        <v>0.9988082381693049</v>
       </c>
       <c r="E20">
         <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9804872160493113</v>
+        <v>0.9805021281487221</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035326801298949</v>
+        <v>1.035334895030712</v>
       </c>
       <c r="J20">
-        <v>1.003053383419648</v>
+        <v>1.003069794623399</v>
       </c>
       <c r="K20">
-        <v>1.012858499935846</v>
+        <v>1.012872075692035</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9948820770159356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.994896713125675</v>
+      </c>
+      <c r="N20">
+        <v>1.003835304120637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9659521296326437</v>
+        <v>0.9659746979027902</v>
       </c>
       <c r="D21">
-        <v>0.9925112767395704</v>
+        <v>0.9925293333192152</v>
       </c>
       <c r="E21">
         <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9712502772963256</v>
+        <v>0.9712699513864913</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032141632166941</v>
+        <v>1.032152204922157</v>
       </c>
       <c r="J21">
-        <v>0.9969457269405152</v>
+        <v>0.9969672534232934</v>
       </c>
       <c r="K21">
-        <v>1.007635927904037</v>
+        <v>1.00765363560727</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9867975896860661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9868168613810858</v>
+      </c>
+      <c r="N21">
+        <v>0.999630594222232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9603711431635057</v>
+        <v>0.9603973722189461</v>
       </c>
       <c r="D22">
-        <v>0.9884172162182094</v>
+        <v>0.988438108244061</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9652250548314294</v>
+        <v>0.965247946113072</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030048524259791</v>
+        <v>1.030060753626501</v>
       </c>
       <c r="J22">
-        <v>0.992954898139883</v>
+        <v>0.9929798341222938</v>
       </c>
       <c r="K22">
-        <v>1.004221676207184</v>
+        <v>1.004242141479855</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.981518387496284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9815407808635139</v>
+      </c>
+      <c r="N22">
+        <v>0.9968823649084652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9633501907727554</v>
+        <v>0.9633744549188924</v>
       </c>
       <c r="D23">
-        <v>0.9906018610246261</v>
+        <v>0.990621232372541</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9684409058220369</v>
+        <v>0.9684620686145261</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031167094539736</v>
+        <v>1.031178435671358</v>
       </c>
       <c r="J23">
-        <v>0.9950855320952637</v>
+        <v>0.9951086408632847</v>
       </c>
       <c r="K23">
-        <v>1.006044636182889</v>
+        <v>1.006063623282287</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9843365885584984</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9843573057590768</v>
+      </c>
+      <c r="N23">
+        <v>0.9983496670713364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9746430416660115</v>
+        <v>0.9746600752601369</v>
       </c>
       <c r="D24">
-        <v>0.9988974691650779</v>
+        <v>0.9989112202774506</v>
       </c>
       <c r="E24">
         <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9806386273558374</v>
+        <v>0.9806534630205775</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03537875203336</v>
+        <v>1.035386805708597</v>
       </c>
       <c r="J24">
-        <v>1.003153380052292</v>
+        <v>1.003169708473327</v>
       </c>
       <c r="K24">
-        <v>1.012943974184173</v>
+        <v>1.012957483124368</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9950145011606568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.995029062716842</v>
+      </c>
+      <c r="N24">
+        <v>1.003904130555129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9869514185685776</v>
+        <v>0.9869609257262811</v>
       </c>
       <c r="D25">
-        <v>1.007961743333823</v>
+        <v>1.007969604992556</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9939491006882293</v>
+        <v>0.9939574059281751</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039908390733846</v>
+        <v>1.039912990547635</v>
       </c>
       <c r="J25">
-        <v>1.011926043065001</v>
+        <v>1.011935218329215</v>
       </c>
       <c r="K25">
-        <v>1.020437708091292</v>
+        <v>1.020445450154566</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.006642080974723</v>
+        <v>1.0066502552709</v>
+      </c>
+      <c r="N25">
+        <v>1.009940014882191</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9962196634700411</v>
+        <v>1.008015702106714</v>
       </c>
       <c r="D2">
-        <v>1.014800708297224</v>
+        <v>1.025582348221113</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.019171208166775</v>
       </c>
       <c r="F2">
-        <v>1.00398482482893</v>
+        <v>1.027081996324728</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043268753136083</v>
+        <v>1.050075846048827</v>
       </c>
       <c r="J2">
-        <v>1.018514034677618</v>
+        <v>1.029959279866314</v>
       </c>
       <c r="K2">
-        <v>1.02605762592533</v>
+        <v>1.036696423849002</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.030369765500811</v>
       </c>
       <c r="M2">
-        <v>1.015388922471199</v>
+        <v>1.038176501222044</v>
       </c>
       <c r="N2">
-        <v>1.014466535197055</v>
+        <v>1.031421940181705</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002659411264753</v>
+        <v>1.014761176249923</v>
       </c>
       <c r="D3">
-        <v>1.019557223935615</v>
+        <v>1.030803770084615</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.025142733643952</v>
       </c>
       <c r="F3">
-        <v>1.010967532483233</v>
+        <v>1.033449878867129</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045572115667224</v>
+        <v>1.052583610413024</v>
       </c>
       <c r="J3">
-        <v>1.023077839660144</v>
+        <v>1.034857368359096</v>
       </c>
       <c r="K3">
-        <v>1.02994583542681</v>
+        <v>1.041057116589714</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.035463706448422</v>
       </c>
       <c r="M3">
-        <v>1.021461978923568</v>
+        <v>1.043671929829574</v>
       </c>
       <c r="N3">
-        <v>1.017604346386064</v>
+        <v>1.036326984521965</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006706241897832</v>
+        <v>1.019001380475288</v>
       </c>
       <c r="D4">
-        <v>1.022548069000759</v>
+        <v>1.034087562010529</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.028910716014998</v>
       </c>
       <c r="F4">
-        <v>1.015359537319363</v>
+        <v>1.037465683051009</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047005020015485</v>
+        <v>1.054146376924926</v>
       </c>
       <c r="J4">
-        <v>1.02593994320113</v>
+        <v>1.037931209089798</v>
       </c>
       <c r="K4">
-        <v>1.032381767110538</v>
+        <v>1.04379127665936</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.038672299672704</v>
       </c>
       <c r="M4">
-        <v>1.025276054342343</v>
+        <v>1.047132018336939</v>
       </c>
       <c r="N4">
-        <v>1.019571043476268</v>
+        <v>1.03940519045908</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008380235299274</v>
+        <v>1.02075566440056</v>
       </c>
       <c r="D5">
-        <v>1.023785585379925</v>
+        <v>1.035446447281466</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.030472947585358</v>
       </c>
       <c r="F5">
-        <v>1.017177283955419</v>
+        <v>1.039130138463986</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047594199066999</v>
+        <v>1.054789606392094</v>
       </c>
       <c r="J5">
-        <v>1.027122416400239</v>
+        <v>1.039201658213006</v>
       </c>
       <c r="K5">
-        <v>1.033387548432208</v>
+        <v>1.044920728388306</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.0400012527017</v>
       </c>
       <c r="M5">
-        <v>1.026853206023094</v>
+        <v>1.04856481435494</v>
       </c>
       <c r="N5">
-        <v>1.02038330291254</v>
+        <v>1.040677443765764</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008659746019831</v>
+        <v>1.021048599130261</v>
       </c>
       <c r="D6">
-        <v>1.023992233768473</v>
+        <v>1.035673372102004</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.030734005089756</v>
       </c>
       <c r="F6">
-        <v>1.017480855037047</v>
+        <v>1.039408247866479</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047692365365322</v>
+        <v>1.054896816982912</v>
       </c>
       <c r="J6">
-        <v>1.027319770141252</v>
+        <v>1.039413724149889</v>
       </c>
       <c r="K6">
-        <v>1.0335553753318</v>
+        <v>1.045109222652639</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.040223248622665</v>
       </c>
       <c r="M6">
-        <v>1.027116513705685</v>
+        <v>1.048804138155364</v>
       </c>
       <c r="N6">
-        <v>1.020518851685331</v>
+        <v>1.040889810860602</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006728715277405</v>
+        <v>1.019024930565448</v>
       </c>
       <c r="D7">
-        <v>1.022564681453242</v>
+        <v>1.03410580309012</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.028931674936647</v>
       </c>
       <c r="F7">
-        <v>1.015383936726544</v>
+        <v>1.0374880154573</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047012943870411</v>
+        <v>1.054155025100598</v>
       </c>
       <c r="J7">
-        <v>1.025955823720001</v>
+        <v>1.037948269156961</v>
       </c>
       <c r="K7">
-        <v>1.032395277156086</v>
+        <v>1.043806445777994</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.038690134269625</v>
       </c>
       <c r="M7">
-        <v>1.025297229847933</v>
+        <v>1.047151247771877</v>
       </c>
       <c r="N7">
-        <v>1.019581953167296</v>
+        <v>1.039422274753494</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9984217946436064</v>
+        <v>1.01032211523184</v>
       </c>
       <c r="D8">
-        <v>1.016426809561245</v>
+        <v>1.027367260470465</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.021209910859942</v>
       </c>
       <c r="F8">
-        <v>1.006371799738824</v>
+        <v>1.029256509375849</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044059446164709</v>
+        <v>1.050936133473263</v>
       </c>
       <c r="J8">
-        <v>1.020075876542024</v>
+        <v>1.031635073893199</v>
       </c>
       <c r="K8">
-        <v>1.027388773286782</v>
+        <v>1.038188858492646</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.032110044874984</v>
       </c>
       <c r="M8">
-        <v>1.017466147189102</v>
+        <v>1.040054245392926</v>
       </c>
       <c r="N8">
-        <v>1.01554059955284</v>
+        <v>1.033100114028325</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9827917043309179</v>
+        <v>0.9939573260825332</v>
       </c>
       <c r="D9">
-        <v>1.004896985901747</v>
+        <v>1.014713768237499</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>1.00681134240152</v>
       </c>
       <c r="F9">
-        <v>0.9894460845323747</v>
+        <v>1.013888018282732</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038386866662838</v>
+        <v>1.044776060216107</v>
       </c>
       <c r="J9">
-        <v>1.008967116986967</v>
+        <v>1.019725286202688</v>
       </c>
       <c r="K9">
-        <v>1.017911109436131</v>
+        <v>1.027572551661699</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>1.019794868564087</v>
       </c>
       <c r="M9">
-        <v>1.002712744374153</v>
+        <v>1.026759720111737</v>
       </c>
       <c r="N9">
-        <v>1.007896744207002</v>
+        <v>1.021173413073221</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9715916575126168</v>
+        <v>0.9822380419483384</v>
       </c>
       <c r="D10">
-        <v>0.9966551632792204</v>
+        <v>1.005671545975065</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.9965921596492945</v>
       </c>
       <c r="F10">
-        <v>0.9773375497169986</v>
+        <v>1.002965438427964</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034247395845104</v>
+        <v>1.040296101692366</v>
       </c>
       <c r="J10">
-        <v>1.000979559032638</v>
+        <v>1.011174538991735</v>
       </c>
       <c r="K10">
-        <v>1.011085073549567</v>
+        <v>1.019939148434479</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>1.011023217522272</v>
       </c>
       <c r="M10">
-        <v>0.9921284028554961</v>
+        <v>1.01728135659557</v>
       </c>
       <c r="N10">
-        <v>1.002395311014115</v>
+        <v>1.012610522820444</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9665276499703509</v>
+        <v>0.9769411058823807</v>
       </c>
       <c r="D11">
-        <v>0.9929352533020935</v>
+        <v>1.001591017850501</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.991997538144866</v>
       </c>
       <c r="F11">
-        <v>0.971867135195947</v>
+        <v>0.9980505280793187</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032358976596066</v>
+        <v>1.038256057885146</v>
       </c>
       <c r="J11">
-        <v>0.9973624012991278</v>
+        <v>1.007305651906287</v>
       </c>
       <c r="K11">
-        <v>1.007991641631763</v>
+        <v>1.016482992148745</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>1.007071963746019</v>
       </c>
       <c r="M11">
-        <v>0.9873398398869218</v>
+        <v>1.013009302466692</v>
       </c>
       <c r="N11">
-        <v>0.9999029060152828</v>
+        <v>1.008736141471567</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9646115943151818</v>
+        <v>0.974937210512407</v>
       </c>
       <c r="D12">
-        <v>0.9915289148235324</v>
+        <v>1.000048442566895</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9902632226152769</v>
       </c>
       <c r="F12">
-        <v>0.9697979258366943</v>
+        <v>0.9961946618107095</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031642024811153</v>
+        <v>1.03748210968289</v>
       </c>
       <c r="J12">
-        <v>0.9959930171979321</v>
+        <v>1.005841496304487</v>
       </c>
       <c r="K12">
-        <v>1.006820227091132</v>
+        <v>1.015174714552449</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>1.005579371947974</v>
       </c>
       <c r="M12">
-        <v>0.9855275627255619</v>
+        <v>1.011395131038062</v>
       </c>
       <c r="N12">
-        <v>0.9989591827295544</v>
+        <v>1.007269906600872</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9650242309857718</v>
+        <v>0.9753687505695061</v>
       </c>
       <c r="D13">
-        <v>0.9918317251757243</v>
+        <v>1.000380582722264</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.990636529030369</v>
       </c>
       <c r="F13">
-        <v>0.9702435180715846</v>
+        <v>0.9965941619272811</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031796534089377</v>
+        <v>1.037648876266442</v>
       </c>
       <c r="J13">
-        <v>0.9962879575006061</v>
+        <v>1.006156824244582</v>
       </c>
       <c r="K13">
-        <v>1.007072541383142</v>
+        <v>1.015456485580803</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>1.005900698974977</v>
       </c>
       <c r="M13">
-        <v>0.9859178698223174</v>
+        <v>1.01174265027828</v>
       </c>
       <c r="N13">
-        <v>0.9991624499104026</v>
+        <v>1.00758568234281</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9663700011746288</v>
+        <v>0.9767762237768546</v>
       </c>
       <c r="D14">
-        <v>0.9928195184642873</v>
+        <v>1.00146406938375</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9918547570216322</v>
       </c>
       <c r="F14">
-        <v>0.971696872965737</v>
+        <v>0.9978977535656335</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032300036261012</v>
+        <v>1.038192420283249</v>
       </c>
       <c r="J14">
-        <v>0.9972497465416954</v>
+        <v>1.007185189693409</v>
       </c>
       <c r="K14">
-        <v>1.007895279089896</v>
+        <v>1.016375360907479</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>1.006949105922289</v>
       </c>
       <c r="M14">
-        <v>0.9871907386911041</v>
+        <v>1.012876445436766</v>
       </c>
       <c r="N14">
-        <v>0.9998252718981935</v>
+        <v>1.008615508188529</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9671944375811209</v>
+        <v>0.977638499344807</v>
       </c>
       <c r="D15">
-        <v>0.9934248105947818</v>
+        <v>1.002128012672426</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9926016116305106</v>
       </c>
       <c r="F15">
-        <v>0.9725872971528999</v>
+        <v>0.9986968544255282</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032608170786381</v>
+        <v>1.038525134857106</v>
       </c>
       <c r="J15">
-        <v>0.9978388524116942</v>
+        <v>1.007815144782693</v>
       </c>
       <c r="K15">
-        <v>1.008399175962544</v>
+        <v>1.01693820395519</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>1.007591700566184</v>
       </c>
       <c r="M15">
-        <v>0.9879704568594986</v>
+        <v>1.013571323538977</v>
       </c>
       <c r="N15">
-        <v>1.000231238293732</v>
+        <v>1.009246357886297</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9719229874468217</v>
+        <v>0.9825846513757569</v>
       </c>
       <c r="D16">
-        <v>0.9968987006964704</v>
+        <v>1.005938705838227</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9968933347328577</v>
       </c>
       <c r="F16">
-        <v>0.977695557427004</v>
+        <v>1.003287520779024</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03437061164294</v>
+        <v>1.040429288086596</v>
       </c>
       <c r="J16">
-        <v>1.001216113436469</v>
+        <v>1.011427626892179</v>
       </c>
       <c r="K16">
-        <v>1.011287333601318</v>
+        <v>1.020165191493488</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>1.011282065021061</v>
       </c>
       <c r="M16">
-        <v>0.9924416501159637</v>
+        <v>1.017561166603244</v>
       </c>
       <c r="N16">
-        <v>1.002558287737596</v>
+        <v>1.012863970134736</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9748297918542188</v>
+        <v>0.9856257140127775</v>
       </c>
       <c r="D17">
-        <v>0.999036048340419</v>
+        <v>1.008283442053783</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9995385364278322</v>
       </c>
       <c r="F17">
-        <v>0.9808368978584013</v>
+        <v>1.00611588769768</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035449715396209</v>
+        <v>1.04159613004577</v>
       </c>
       <c r="J17">
-        <v>1.003290809690263</v>
+        <v>1.013647706235525</v>
       </c>
       <c r="K17">
-        <v>1.013061000257309</v>
+        <v>1.022147774801458</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>1.013554661612774</v>
       </c>
       <c r="M17">
-        <v>0.9951894808815158</v>
+        <v>1.02001752632919</v>
       </c>
       <c r="N17">
-        <v>1.003987551361799</v>
+        <v>1.015087202245396</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9765048142100583</v>
+        <v>0.9873782732557083</v>
       </c>
       <c r="D18">
-        <v>1.000268282607859</v>
+        <v>1.009635300823832</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>1.001065229123221</v>
       </c>
       <c r="F18">
-        <v>0.982647482080154</v>
+        <v>1.007747917762584</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036069955537215</v>
+        <v>1.042267145299675</v>
       </c>
       <c r="J18">
-        <v>1.004485799834603</v>
+        <v>1.01492674318202</v>
       </c>
       <c r="K18">
-        <v>1.014082386750906</v>
+        <v>1.023289763560238</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>1.014865600623264</v>
       </c>
       <c r="M18">
-        <v>0.9967726194334904</v>
+        <v>1.021434238946453</v>
       </c>
       <c r="N18">
-        <v>1.004810680097391</v>
+        <v>1.016368055571063</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9770725631768776</v>
+        <v>0.9879723320795796</v>
       </c>
       <c r="D19">
-        <v>1.000686046425168</v>
+        <v>1.010093631045089</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>1.0015831048376</v>
       </c>
       <c r="F19">
-        <v>0.9832612507249461</v>
+        <v>1.008301462652966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036279914717722</v>
+        <v>1.042494350823374</v>
       </c>
       <c r="J19">
-        <v>1.004890748571778</v>
+        <v>1.015360224570756</v>
       </c>
       <c r="K19">
-        <v>1.014428468405054</v>
+        <v>1.02367675912952</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.015310170631257</v>
       </c>
       <c r="M19">
-        <v>0.997309177417364</v>
+        <v>1.021914641092626</v>
       </c>
       <c r="N19">
-        <v>1.005089597497291</v>
+        <v>1.016802152553092</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9745200558564661</v>
+        <v>0.9853016541231937</v>
       </c>
       <c r="D20">
-        <v>0.9988082381693049</v>
+        <v>1.008033521064554</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9992564228296897</v>
       </c>
       <c r="F20">
-        <v>0.9805021281487221</v>
+        <v>1.005814278840922</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035334895030712</v>
+        <v>1.041471938017597</v>
       </c>
       <c r="J20">
-        <v>1.003069794623399</v>
+        <v>1.013411171400597</v>
       </c>
       <c r="K20">
-        <v>1.012872075692035</v>
+        <v>1.021936566395299</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.013312359758973</v>
       </c>
       <c r="M20">
-        <v>0.994896713125675</v>
+        <v>1.019755655867302</v>
       </c>
       <c r="N20">
-        <v>1.003835304120637</v>
+        <v>1.014850331503872</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9659746979027902</v>
+        <v>0.9763627878057869</v>
       </c>
       <c r="D21">
-        <v>0.9925293333192152</v>
+        <v>1.001145769578358</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9914968018116539</v>
       </c>
       <c r="F21">
-        <v>0.9712699513864913</v>
+        <v>0.9975147340558664</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032152204922157</v>
+        <v>1.038032816675353</v>
       </c>
       <c r="J21">
-        <v>0.9969672534232934</v>
+        <v>1.006883127207605</v>
       </c>
       <c r="K21">
-        <v>1.00765363560727</v>
+        <v>1.016105467468915</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>1.006641080692911</v>
       </c>
       <c r="M21">
-        <v>0.9868168613810858</v>
+        <v>1.012543344030674</v>
       </c>
       <c r="N21">
-        <v>0.999630594222232</v>
+        <v>1.008313016739348</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9603973722189461</v>
+        <v>0.9705303552087727</v>
       </c>
       <c r="D22">
-        <v>0.988438108244061</v>
+        <v>0.9966584043881412</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9864566658018643</v>
       </c>
       <c r="F22">
-        <v>0.965247946113072</v>
+        <v>0.9921200616291603</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030060753626501</v>
+        <v>1.03577619912612</v>
       </c>
       <c r="J22">
-        <v>0.9929798341222938</v>
+        <v>1.002620794133807</v>
       </c>
       <c r="K22">
-        <v>1.004242141479855</v>
+        <v>1.012296350868686</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>1.00230127931251</v>
       </c>
       <c r="M22">
-        <v>0.9815407808635139</v>
+        <v>1.007849254740123</v>
       </c>
       <c r="N22">
-        <v>0.9968823649084652</v>
+        <v>1.004044630663689</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9633744549188924</v>
+        <v>0.9736434407857566</v>
       </c>
       <c r="D23">
-        <v>0.990621232372541</v>
+        <v>0.9990528578678608</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.989144628377567</v>
       </c>
       <c r="F23">
-        <v>0.9684620686145261</v>
+        <v>0.9949974799544971</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031178435671358</v>
+        <v>1.036981828394092</v>
       </c>
       <c r="J23">
-        <v>0.9951086408632847</v>
+        <v>1.004896068015844</v>
       </c>
       <c r="K23">
-        <v>1.006063623282287</v>
+        <v>1.014329854064675</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>1.004616365818487</v>
       </c>
       <c r="M23">
-        <v>0.9843573057590768</v>
+        <v>1.01035356723515</v>
       </c>
       <c r="N23">
-        <v>0.9983496670713364</v>
+        <v>1.006323135695617</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9746600752601369</v>
+        <v>0.9854481482601729</v>
       </c>
       <c r="D24">
-        <v>0.9989112202774506</v>
+        <v>1.008146498232817</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9993839477496688</v>
       </c>
       <c r="F24">
-        <v>0.9806534630205775</v>
+        <v>1.005950617447584</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035386805708597</v>
+        <v>1.0415280845825</v>
       </c>
       <c r="J24">
-        <v>1.003169708473327</v>
+        <v>1.013518100285304</v>
       </c>
       <c r="K24">
-        <v>1.012957483124368</v>
+        <v>1.022032046803562</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>1.01342189059992</v>
       </c>
       <c r="M24">
-        <v>0.995029062716842</v>
+        <v>1.019874033269714</v>
       </c>
       <c r="N24">
-        <v>1.003904130555129</v>
+        <v>1.01495741223986</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9869609257262811</v>
+        <v>0.9983213218634397</v>
       </c>
       <c r="D25">
-        <v>1.007969604992556</v>
+        <v>1.01808533645395</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>1.010636050833094</v>
       </c>
       <c r="F25">
-        <v>0.9939574059281751</v>
+        <v>1.01797279552871</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039912990547635</v>
+        <v>1.046430777743229</v>
       </c>
       <c r="J25">
-        <v>1.011935218329215</v>
+        <v>1.022905312592568</v>
       </c>
       <c r="K25">
-        <v>1.020445450154566</v>
+        <v>1.030409241258339</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.023071469421537</v>
       </c>
       <c r="M25">
-        <v>1.0066502552709</v>
+        <v>1.030298369606134</v>
       </c>
       <c r="N25">
-        <v>1.009940014882191</v>
+        <v>1.024357955465329</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008015702106714</v>
+        <v>1.005037319994605</v>
       </c>
       <c r="D2">
-        <v>1.025582348221113</v>
+        <v>1.027345138984632</v>
       </c>
       <c r="E2">
-        <v>1.019171208166775</v>
+        <v>1.026354243075922</v>
       </c>
       <c r="F2">
-        <v>1.027081996324728</v>
+        <v>1.034792481336525</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050075846048827</v>
+        <v>1.051784813890394</v>
       </c>
       <c r="J2">
-        <v>1.029959279866314</v>
+        <v>1.02706840252657</v>
       </c>
       <c r="K2">
-        <v>1.036696423849002</v>
+        <v>1.038436217192301</v>
       </c>
       <c r="L2">
-        <v>1.030369765500811</v>
+        <v>1.037458236363149</v>
       </c>
       <c r="M2">
-        <v>1.038176501222044</v>
+        <v>1.045787482123359</v>
       </c>
       <c r="N2">
-        <v>1.031421940181705</v>
+        <v>1.02852695746455</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014761176249923</v>
+        <v>1.009461350193528</v>
       </c>
       <c r="D3">
-        <v>1.030803770084615</v>
+        <v>1.030657015182792</v>
       </c>
       <c r="E3">
-        <v>1.025142733643952</v>
+        <v>1.030247148879031</v>
       </c>
       <c r="F3">
-        <v>1.033449878867129</v>
+        <v>1.038682934023716</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052583610413024</v>
+        <v>1.053064551478765</v>
       </c>
       <c r="J3">
-        <v>1.034857368359096</v>
+        <v>1.029697370710332</v>
       </c>
       <c r="K3">
-        <v>1.041057116589714</v>
+        <v>1.040912103186804</v>
       </c>
       <c r="L3">
-        <v>1.035463706448422</v>
+        <v>1.040507103907115</v>
       </c>
       <c r="M3">
-        <v>1.043671929829574</v>
+        <v>1.048843674231817</v>
       </c>
       <c r="N3">
-        <v>1.036326984521965</v>
+        <v>1.03115965908468</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019001380475288</v>
+        <v>1.012265492201469</v>
       </c>
       <c r="D4">
-        <v>1.034087562010529</v>
+        <v>1.032757455053596</v>
       </c>
       <c r="E4">
-        <v>1.028910716014998</v>
+        <v>1.032723806908324</v>
       </c>
       <c r="F4">
-        <v>1.037465683051009</v>
+        <v>1.041154165380891</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054146376924926</v>
+        <v>1.053862162178115</v>
       </c>
       <c r="J4">
-        <v>1.037931209089798</v>
+        <v>1.031360565531535</v>
       </c>
       <c r="K4">
-        <v>1.04379127665936</v>
+        <v>1.042475970064802</v>
       </c>
       <c r="L4">
-        <v>1.038672299672704</v>
+        <v>1.04244269693742</v>
       </c>
       <c r="M4">
-        <v>1.047132018336939</v>
+        <v>1.050780027254293</v>
       </c>
       <c r="N4">
-        <v>1.03940519045908</v>
+        <v>1.0328252158333</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02075566440056</v>
+        <v>1.013430829412099</v>
       </c>
       <c r="D5">
-        <v>1.035446447281466</v>
+        <v>1.033630588008561</v>
       </c>
       <c r="E5">
-        <v>1.030472947585358</v>
+        <v>1.033755199295206</v>
       </c>
       <c r="F5">
-        <v>1.039130138463986</v>
+        <v>1.042182370757329</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054789606392094</v>
+        <v>1.054190329366393</v>
       </c>
       <c r="J5">
-        <v>1.039201658213006</v>
+        <v>1.032050958970441</v>
       </c>
       <c r="K5">
-        <v>1.044920728388306</v>
+        <v>1.04312451973935</v>
       </c>
       <c r="L5">
-        <v>1.0400012527017</v>
+        <v>1.043247779818049</v>
       </c>
       <c r="M5">
-        <v>1.04856481435494</v>
+        <v>1.051584490197947</v>
       </c>
       <c r="N5">
-        <v>1.040677443765764</v>
+        <v>1.033516589710078</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021048599130261</v>
+        <v>1.013625715150552</v>
       </c>
       <c r="D6">
-        <v>1.035673372102004</v>
+        <v>1.033776619214622</v>
       </c>
       <c r="E6">
-        <v>1.030734005089756</v>
+        <v>1.033927809710641</v>
       </c>
       <c r="F6">
-        <v>1.039408247866479</v>
+        <v>1.042354393327181</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054896816982912</v>
+        <v>1.054245014977798</v>
       </c>
       <c r="J6">
-        <v>1.039413724149889</v>
+        <v>1.03216636970137</v>
       </c>
       <c r="K6">
-        <v>1.045109222652639</v>
+        <v>1.04323289907152</v>
       </c>
       <c r="L6">
-        <v>1.040223248622665</v>
+        <v>1.04338245777357</v>
       </c>
       <c r="M6">
-        <v>1.048804138155364</v>
+        <v>1.051719009342726</v>
       </c>
       <c r="N6">
-        <v>1.040889810860602</v>
+        <v>1.033632164337484</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019024930565448</v>
+        <v>1.01228111601432</v>
       </c>
       <c r="D7">
-        <v>1.03410580309012</v>
+        <v>1.032769160382043</v>
       </c>
       <c r="E7">
-        <v>1.028931674936647</v>
+        <v>1.032737626476921</v>
       </c>
       <c r="F7">
-        <v>1.0374880154573</v>
+        <v>1.041167945905792</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054155025100598</v>
+        <v>1.053866575064896</v>
       </c>
       <c r="J7">
-        <v>1.037948269156961</v>
+        <v>1.031369824891718</v>
       </c>
       <c r="K7">
-        <v>1.043806445777994</v>
+        <v>1.042484670672329</v>
       </c>
       <c r="L7">
-        <v>1.038690134269625</v>
+        <v>1.042453488093521</v>
       </c>
       <c r="M7">
-        <v>1.047151247771877</v>
+        <v>1.050790813801141</v>
       </c>
       <c r="N7">
-        <v>1.039422274753494</v>
+        <v>1.032834488342837</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01032211523184</v>
+        <v>1.006544852244996</v>
       </c>
       <c r="D8">
-        <v>1.027367260470465</v>
+        <v>1.028473400695454</v>
       </c>
       <c r="E8">
-        <v>1.021209910859942</v>
+        <v>1.027678836501345</v>
       </c>
       <c r="F8">
-        <v>1.029256509375849</v>
+        <v>1.036117049130177</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050936133473263</v>
+        <v>1.052223704942329</v>
       </c>
       <c r="J8">
-        <v>1.031635073893199</v>
+        <v>1.027964890834134</v>
       </c>
       <c r="K8">
-        <v>1.038188858492646</v>
+        <v>1.039281014428546</v>
       </c>
       <c r="L8">
-        <v>1.032110044874984</v>
+        <v>1.038496491647315</v>
       </c>
       <c r="M8">
-        <v>1.040054245392926</v>
+        <v>1.046829045037523</v>
       </c>
       <c r="N8">
-        <v>1.033100114028325</v>
+        <v>1.029424718888339</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9939573260825332</v>
+        <v>0.995965885795969</v>
       </c>
       <c r="D9">
-        <v>1.014713768237499</v>
+        <v>1.020563573735296</v>
       </c>
       <c r="E9">
-        <v>1.00681134240152</v>
+        <v>1.01842468898326</v>
       </c>
       <c r="F9">
-        <v>1.013888018282732</v>
+        <v>1.026846744897617</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044776060216107</v>
+        <v>1.04908851885382</v>
       </c>
       <c r="J9">
-        <v>1.019725286202688</v>
+        <v>1.021661907731299</v>
       </c>
       <c r="K9">
-        <v>1.027572551661699</v>
+        <v>1.03333160437061</v>
       </c>
       <c r="L9">
-        <v>1.019794868564087</v>
+        <v>1.031225747435563</v>
       </c>
       <c r="M9">
-        <v>1.026759720111737</v>
+        <v>1.039518767357979</v>
       </c>
       <c r="N9">
-        <v>1.021173413073221</v>
+        <v>1.023112784826536</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9822380419483384</v>
+        <v>0.9885625520233479</v>
       </c>
       <c r="D10">
-        <v>1.005671545975065</v>
+        <v>1.015040671484099</v>
       </c>
       <c r="E10">
-        <v>0.9965921596492945</v>
+        <v>1.012003266638369</v>
       </c>
       <c r="F10">
-        <v>1.002965438427964</v>
+        <v>1.020393325344523</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040296101692366</v>
+        <v>1.046826570197924</v>
       </c>
       <c r="J10">
-        <v>1.011174538991735</v>
+        <v>1.017237422210531</v>
       </c>
       <c r="K10">
-        <v>1.019939148434479</v>
+        <v>1.029143570299841</v>
       </c>
       <c r="L10">
-        <v>1.011023217522272</v>
+        <v>1.026159128436092</v>
       </c>
       <c r="M10">
-        <v>1.01728135659557</v>
+        <v>1.03440388212164</v>
       </c>
       <c r="N10">
-        <v>1.012610522820444</v>
+        <v>1.018682016028833</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9769411058823807</v>
+        <v>0.985265400718457</v>
       </c>
       <c r="D11">
-        <v>1.001591017850501</v>
+        <v>1.012584914459994</v>
       </c>
       <c r="E11">
-        <v>0.991997538144866</v>
+        <v>1.009157317031526</v>
       </c>
       <c r="F11">
-        <v>0.9980505280793187</v>
+        <v>1.017528232710377</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038256057885146</v>
+        <v>1.045803871512277</v>
       </c>
       <c r="J11">
-        <v>1.007305651906287</v>
+        <v>1.015264268226161</v>
       </c>
       <c r="K11">
-        <v>1.016482992148745</v>
+        <v>1.027273337197462</v>
       </c>
       <c r="L11">
-        <v>1.007071963746019</v>
+        <v>1.023908581609133</v>
       </c>
       <c r="M11">
-        <v>1.013009302466692</v>
+        <v>1.032126993388882</v>
       </c>
       <c r="N11">
-        <v>1.008736141471567</v>
+        <v>1.016706059939481</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.974937210512407</v>
+        <v>0.9840261921319507</v>
       </c>
       <c r="D12">
-        <v>1.000048442566895</v>
+        <v>1.011662612379997</v>
       </c>
       <c r="E12">
-        <v>0.9902632226152769</v>
+        <v>1.008089859094492</v>
       </c>
       <c r="F12">
-        <v>0.9961946618107095</v>
+        <v>1.016452845822571</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03748210968289</v>
+        <v>1.045417266683465</v>
       </c>
       <c r="J12">
-        <v>1.005841496304487</v>
+        <v>1.014522322654875</v>
       </c>
       <c r="K12">
-        <v>1.015174714552449</v>
+        <v>1.026569734871084</v>
       </c>
       <c r="L12">
-        <v>1.005579371947974</v>
+        <v>1.023063694207768</v>
       </c>
       <c r="M12">
-        <v>1.011395131038062</v>
+        <v>1.03127148073608</v>
       </c>
       <c r="N12">
-        <v>1.007269906600872</v>
+        <v>1.015963060720382</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9753687505695061</v>
+        <v>0.9842926755034074</v>
       </c>
       <c r="D13">
-        <v>1.000380582722264</v>
+        <v>1.01186091524967</v>
       </c>
       <c r="E13">
-        <v>0.990636529030369</v>
+        <v>1.008319309243625</v>
       </c>
       <c r="F13">
-        <v>0.9965941619272811</v>
+        <v>1.016684034198818</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037648876266442</v>
+        <v>1.045500503094006</v>
       </c>
       <c r="J13">
-        <v>1.006156824244582</v>
+        <v>1.014681888047331</v>
       </c>
       <c r="K13">
-        <v>1.015456485580803</v>
+        <v>1.026721069791566</v>
       </c>
       <c r="L13">
-        <v>1.005900698974977</v>
+        <v>1.023245336765485</v>
       </c>
       <c r="M13">
-        <v>1.01174265027828</v>
+        <v>1.031455440880891</v>
       </c>
       <c r="N13">
-        <v>1.00758568234281</v>
+        <v>1.016122852713997</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9767762237768546</v>
+        <v>0.9851632677195706</v>
       </c>
       <c r="D14">
-        <v>1.00146406938375</v>
+        <v>1.012508886010294</v>
       </c>
       <c r="E14">
-        <v>0.9918547570216322</v>
+        <v>1.009069294768111</v>
       </c>
       <c r="F14">
-        <v>0.9978977535656335</v>
+        <v>1.017439571877768</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038192420283249</v>
+        <v>1.045772053289585</v>
       </c>
       <c r="J14">
-        <v>1.007185189693409</v>
+        <v>1.015203125456562</v>
       </c>
       <c r="K14">
-        <v>1.016375360907479</v>
+        <v>1.027215361367987</v>
       </c>
       <c r="L14">
-        <v>1.006949105922289</v>
+        <v>1.023838927734426</v>
       </c>
       <c r="M14">
-        <v>1.012876445436766</v>
+        <v>1.032056478517636</v>
       </c>
       <c r="N14">
-        <v>1.008615508188529</v>
+        <v>1.016644830340137</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.977638499344807</v>
+        <v>0.9856977233477965</v>
       </c>
       <c r="D15">
-        <v>1.002128012672426</v>
+        <v>1.012906766189604</v>
       </c>
       <c r="E15">
-        <v>0.9926016116305106</v>
+        <v>1.009529998745533</v>
       </c>
       <c r="F15">
-        <v>0.9986968544255282</v>
+        <v>1.017903587527137</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038525134857106</v>
+        <v>1.045938465534839</v>
       </c>
       <c r="J15">
-        <v>1.007815144782693</v>
+        <v>1.015523067754889</v>
       </c>
       <c r="K15">
-        <v>1.01693820395519</v>
+        <v>1.027518717576472</v>
       </c>
       <c r="L15">
-        <v>1.007591700566184</v>
+        <v>1.024203461825159</v>
       </c>
       <c r="M15">
-        <v>1.013571323538977</v>
+        <v>1.032425488623782</v>
       </c>
       <c r="N15">
-        <v>1.009246357886297</v>
+        <v>1.016965226993225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9825846513757569</v>
+        <v>0.9887793825667885</v>
       </c>
       <c r="D16">
-        <v>1.005938705838227</v>
+        <v>1.015202258298144</v>
       </c>
       <c r="E16">
-        <v>0.9968933347328577</v>
+        <v>1.012190721150683</v>
       </c>
       <c r="F16">
-        <v>1.003287520779024</v>
+        <v>1.020581936909912</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040429288086596</v>
+        <v>1.046893512652155</v>
       </c>
       <c r="J16">
-        <v>1.011427626892179</v>
+        <v>1.017367131332217</v>
       </c>
       <c r="K16">
-        <v>1.020165191493488</v>
+        <v>1.029266462978806</v>
       </c>
       <c r="L16">
-        <v>1.011282065021061</v>
+        <v>1.026307260629741</v>
       </c>
       <c r="M16">
-        <v>1.017561166603244</v>
+        <v>1.034553645953809</v>
       </c>
       <c r="N16">
-        <v>1.012863970134736</v>
+        <v>1.01881190935235</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9856257140127775</v>
+        <v>0.9906874203341174</v>
       </c>
       <c r="D17">
-        <v>1.008283442053783</v>
+        <v>1.016624626033284</v>
       </c>
       <c r="E17">
-        <v>0.9995385364278322</v>
+        <v>1.013841850733023</v>
       </c>
       <c r="F17">
-        <v>1.00611588769768</v>
+        <v>1.022242691437781</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04159613004577</v>
+        <v>1.047480849242626</v>
       </c>
       <c r="J17">
-        <v>1.013647706235525</v>
+        <v>1.018508231725788</v>
       </c>
       <c r="K17">
-        <v>1.022147774801458</v>
+        <v>1.030347311728374</v>
       </c>
       <c r="L17">
-        <v>1.013554661612774</v>
+        <v>1.027611458210024</v>
       </c>
       <c r="M17">
-        <v>1.02001752632919</v>
+        <v>1.035871650257428</v>
       </c>
       <c r="N17">
-        <v>1.015087202245396</v>
+        <v>1.019954630239365</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9873782732557083</v>
+        <v>0.9917915760237582</v>
       </c>
       <c r="D18">
-        <v>1.009635300823832</v>
+        <v>1.017448097566493</v>
       </c>
       <c r="E18">
-        <v>1.001065229123221</v>
+        <v>1.014798650009249</v>
       </c>
       <c r="F18">
-        <v>1.007747917762584</v>
+        <v>1.023204596288015</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042267145299675</v>
+        <v>1.04781927509903</v>
       </c>
       <c r="J18">
-        <v>1.01492674318202</v>
+        <v>1.019168315059186</v>
       </c>
       <c r="K18">
-        <v>1.023289763560238</v>
+        <v>1.030972300614831</v>
       </c>
       <c r="L18">
-        <v>1.014865600623264</v>
+        <v>1.028366736821816</v>
       </c>
       <c r="M18">
-        <v>1.021434238946453</v>
+        <v>1.036634458651194</v>
       </c>
       <c r="N18">
-        <v>1.016368055571063</v>
+        <v>1.02061565096681</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9879723320795796</v>
+        <v>0.9921665991500875</v>
       </c>
       <c r="D19">
-        <v>1.010093631045089</v>
+        <v>1.017727846867289</v>
       </c>
       <c r="E19">
-        <v>1.0015831048376</v>
+        <v>1.015123844310525</v>
       </c>
       <c r="F19">
-        <v>1.008301462652966</v>
+        <v>1.023531445901143</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042494350823374</v>
+        <v>1.04793397108316</v>
       </c>
       <c r="J19">
-        <v>1.015360224570756</v>
+        <v>1.019392465496026</v>
       </c>
       <c r="K19">
-        <v>1.02367675912952</v>
+        <v>1.03118449214639</v>
       </c>
       <c r="L19">
-        <v>1.015310170631257</v>
+        <v>1.028623357293856</v>
       </c>
       <c r="M19">
-        <v>1.021914641092626</v>
+        <v>1.036893558467467</v>
       </c>
       <c r="N19">
-        <v>1.016802152553092</v>
+        <v>1.020840119722981</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9853016541231937</v>
+        <v>0.9904836184263651</v>
       </c>
       <c r="D20">
-        <v>1.008033521064554</v>
+        <v>1.016472661037643</v>
       </c>
       <c r="E20">
-        <v>0.9992564228296897</v>
+        <v>1.013665352999158</v>
       </c>
       <c r="F20">
-        <v>1.005814278840922</v>
+        <v>1.022065213800476</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041471938017597</v>
+        <v>1.047418265239697</v>
       </c>
       <c r="J20">
-        <v>1.013411171400597</v>
+        <v>1.018386374388283</v>
       </c>
       <c r="K20">
-        <v>1.021936566395299</v>
+        <v>1.030231913488213</v>
       </c>
       <c r="L20">
-        <v>1.013312359758973</v>
+        <v>1.027472095558715</v>
       </c>
       <c r="M20">
-        <v>1.019755655867302</v>
+        <v>1.035730860578346</v>
       </c>
       <c r="N20">
-        <v>1.014850331503872</v>
+        <v>1.019832599850465</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9763627878057869</v>
+        <v>0.9849073066410932</v>
       </c>
       <c r="D21">
-        <v>1.001145769578358</v>
+        <v>1.01231835813798</v>
       </c>
       <c r="E21">
-        <v>0.9914968018116539</v>
+        <v>1.008848732617144</v>
       </c>
       <c r="F21">
-        <v>0.9975147340558664</v>
+        <v>1.017217397549493</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038032816675353</v>
+        <v>1.045692276202116</v>
       </c>
       <c r="J21">
-        <v>1.006883127207605</v>
+        <v>1.015049886743527</v>
       </c>
       <c r="K21">
-        <v>1.016105467468915</v>
+        <v>1.027070054107522</v>
       </c>
       <c r="L21">
-        <v>1.006641080692911</v>
+        <v>1.023664380129327</v>
       </c>
       <c r="M21">
-        <v>1.012543344030674</v>
+        <v>1.031879761456613</v>
       </c>
       <c r="N21">
-        <v>1.008313016739348</v>
+        <v>1.016491374010552</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9705303552087727</v>
+        <v>0.9813169510792136</v>
       </c>
       <c r="D22">
-        <v>0.9966584043881412</v>
+        <v>1.009647552834325</v>
       </c>
       <c r="E22">
-        <v>0.9864566658018643</v>
+        <v>1.005760196184159</v>
       </c>
       <c r="F22">
-        <v>0.9921200616291603</v>
+        <v>1.014104498749137</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03577619912612</v>
+        <v>1.044568021063143</v>
       </c>
       <c r="J22">
-        <v>1.002620794133807</v>
+        <v>1.012899642064927</v>
       </c>
       <c r="K22">
-        <v>1.012296350868686</v>
+        <v>1.025030282295273</v>
       </c>
       <c r="L22">
-        <v>1.00230127931251</v>
+        <v>1.021218399653113</v>
       </c>
       <c r="M22">
-        <v>1.007849254740123</v>
+        <v>1.029401627072039</v>
       </c>
       <c r="N22">
-        <v>1.004044630663689</v>
+        <v>1.014338075737872</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9736434407857566</v>
+        <v>0.9832285255205154</v>
       </c>
       <c r="D23">
-        <v>0.9990528578678608</v>
+        <v>1.011069136679366</v>
       </c>
       <c r="E23">
-        <v>0.989144628377567</v>
+        <v>1.007403368884339</v>
       </c>
       <c r="F23">
-        <v>0.9949974799544971</v>
+        <v>1.015761045026185</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036981828394092</v>
+        <v>1.045167793027845</v>
       </c>
       <c r="J23">
-        <v>1.004896068015844</v>
+        <v>1.014044646865244</v>
       </c>
       <c r="K23">
-        <v>1.014329854064675</v>
+        <v>1.026116647323897</v>
       </c>
       <c r="L23">
-        <v>1.004616365818487</v>
+        <v>1.022520129186004</v>
       </c>
       <c r="M23">
-        <v>1.01035356723515</v>
+        <v>1.030720872482459</v>
       </c>
       <c r="N23">
-        <v>1.006323135695617</v>
+        <v>1.015484706576339</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9854481482601729</v>
+        <v>0.9905757347839004</v>
       </c>
       <c r="D24">
-        <v>1.008146498232817</v>
+        <v>1.016541346516217</v>
       </c>
       <c r="E24">
-        <v>0.9993839477496688</v>
+        <v>1.013745124087528</v>
       </c>
       <c r="F24">
-        <v>1.005950617447584</v>
+        <v>1.022145429234612</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0415280845825</v>
+        <v>1.047446557088296</v>
       </c>
       <c r="J24">
-        <v>1.013518100285304</v>
+        <v>1.018441453443981</v>
       </c>
       <c r="K24">
-        <v>1.022032046803562</v>
+        <v>1.030284073805898</v>
       </c>
       <c r="L24">
-        <v>1.01342189059992</v>
+        <v>1.027535084316036</v>
       </c>
       <c r="M24">
-        <v>1.019874033269714</v>
+        <v>1.03579449576395</v>
       </c>
       <c r="N24">
-        <v>1.01495741223986</v>
+        <v>1.019887757124739</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9983213218634397</v>
+        <v>0.9987599818539927</v>
       </c>
       <c r="D25">
-        <v>1.01808533645395</v>
+        <v>1.02265084436973</v>
       </c>
       <c r="E25">
-        <v>1.010636050833094</v>
+        <v>1.020859718058834</v>
       </c>
       <c r="F25">
-        <v>1.01797279552871</v>
+        <v>1.029289612563075</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046430777743229</v>
+        <v>1.049928528665653</v>
       </c>
       <c r="J25">
-        <v>1.022905312592568</v>
+        <v>1.02332914974111</v>
       </c>
       <c r="K25">
-        <v>1.030409241258339</v>
+        <v>1.034907424122194</v>
       </c>
       <c r="L25">
-        <v>1.023071469421537</v>
+        <v>1.03314261940832</v>
       </c>
       <c r="M25">
-        <v>1.030298369606134</v>
+        <v>1.041449644382011</v>
       </c>
       <c r="N25">
-        <v>1.024357955465329</v>
+        <v>1.024782394511237</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005037319994605</v>
+        <v>1.033721973275866</v>
       </c>
       <c r="D2">
-        <v>1.027345138984632</v>
+        <v>1.042649370212068</v>
       </c>
       <c r="E2">
-        <v>1.026354243075922</v>
+        <v>1.051610385697098</v>
       </c>
       <c r="F2">
-        <v>1.034792481336525</v>
+        <v>1.056756728469804</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051784813890394</v>
+        <v>1.038531091474237</v>
       </c>
       <c r="J2">
-        <v>1.02706840252657</v>
+        <v>1.038845142350186</v>
       </c>
       <c r="K2">
-        <v>1.038436217192301</v>
+        <v>1.045425461146601</v>
       </c>
       <c r="L2">
-        <v>1.037458236363149</v>
+        <v>1.054361410229219</v>
       </c>
       <c r="M2">
-        <v>1.045787482123359</v>
+        <v>1.059493565495453</v>
       </c>
       <c r="N2">
-        <v>1.02852695746455</v>
+        <v>1.040320421609527</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009461350193528</v>
+        <v>1.03465313759208</v>
       </c>
       <c r="D3">
-        <v>1.030657015182792</v>
+        <v>1.04335971836418</v>
       </c>
       <c r="E3">
-        <v>1.030247148879031</v>
+        <v>1.052504612184161</v>
       </c>
       <c r="F3">
-        <v>1.038682934023716</v>
+        <v>1.057626584507984</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053064551478765</v>
+        <v>1.038717252178612</v>
       </c>
       <c r="J3">
-        <v>1.029697370710332</v>
+        <v>1.039419231887186</v>
       </c>
       <c r="K3">
-        <v>1.040912103186804</v>
+        <v>1.04594694719802</v>
       </c>
       <c r="L3">
-        <v>1.040507103907115</v>
+        <v>1.055068107682653</v>
       </c>
       <c r="M3">
-        <v>1.048843674231817</v>
+        <v>1.060176980543706</v>
       </c>
       <c r="N3">
-        <v>1.03115965908468</v>
+        <v>1.040895326419518</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012265492201469</v>
+        <v>1.035255964416308</v>
       </c>
       <c r="D4">
-        <v>1.032757455053596</v>
+        <v>1.043819356766045</v>
       </c>
       <c r="E4">
-        <v>1.032723806908324</v>
+        <v>1.053084226840176</v>
       </c>
       <c r="F4">
-        <v>1.041154165380891</v>
+        <v>1.058189971051008</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053862162178115</v>
+        <v>1.038836072506762</v>
       </c>
       <c r="J4">
-        <v>1.031360565531535</v>
+        <v>1.039790388737462</v>
       </c>
       <c r="K4">
-        <v>1.042475970064802</v>
+        <v>1.046283706624339</v>
       </c>
       <c r="L4">
-        <v>1.04244269693742</v>
+        <v>1.055525741405233</v>
       </c>
       <c r="M4">
-        <v>1.050780027254293</v>
+        <v>1.060619085110495</v>
       </c>
       <c r="N4">
-        <v>1.0328252158333</v>
+        <v>1.041267010355094</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013430829412099</v>
+        <v>1.035509463894888</v>
       </c>
       <c r="D5">
-        <v>1.033630588008561</v>
+        <v>1.044012586219315</v>
       </c>
       <c r="E5">
-        <v>1.033755199295206</v>
+        <v>1.053328132383304</v>
       </c>
       <c r="F5">
-        <v>1.042182370757329</v>
+        <v>1.058426944438578</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054190329366393</v>
+        <v>1.038885631681834</v>
       </c>
       <c r="J5">
-        <v>1.032050958970441</v>
+        <v>1.039946346059297</v>
       </c>
       <c r="K5">
-        <v>1.04312451973935</v>
+        <v>1.046425117097636</v>
       </c>
       <c r="L5">
-        <v>1.043247779818049</v>
+        <v>1.055718213885554</v>
       </c>
       <c r="M5">
-        <v>1.051584490197947</v>
+        <v>1.060804918051059</v>
       </c>
       <c r="N5">
-        <v>1.033516589710078</v>
+        <v>1.041423189154214</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013625715150552</v>
+        <v>1.035552031710929</v>
       </c>
       <c r="D6">
-        <v>1.033776619214622</v>
+        <v>1.044045030102976</v>
       </c>
       <c r="E6">
-        <v>1.033927809710641</v>
+        <v>1.0533690989646</v>
       </c>
       <c r="F6">
-        <v>1.042354393327181</v>
+        <v>1.058466740637833</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054245014977798</v>
+        <v>1.038893929824892</v>
       </c>
       <c r="J6">
-        <v>1.03216636970137</v>
+        <v>1.039972527433946</v>
       </c>
       <c r="K6">
-        <v>1.04323289907152</v>
+        <v>1.046448850935805</v>
       </c>
       <c r="L6">
-        <v>1.04338245777357</v>
+        <v>1.055750535706781</v>
       </c>
       <c r="M6">
-        <v>1.051719009342726</v>
+        <v>1.060836118549567</v>
       </c>
       <c r="N6">
-        <v>1.033632164337484</v>
+        <v>1.041449407709419</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01228111601432</v>
+        <v>1.035259351410743</v>
       </c>
       <c r="D7">
-        <v>1.032769160382043</v>
+        <v>1.043821938719281</v>
       </c>
       <c r="E7">
-        <v>1.032737626476921</v>
+        <v>1.053087484994404</v>
       </c>
       <c r="F7">
-        <v>1.041167945905792</v>
+        <v>1.058193137009123</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053866575064896</v>
+        <v>1.038836736263594</v>
       </c>
       <c r="J7">
-        <v>1.031369824891718</v>
+        <v>1.039792472950736</v>
       </c>
       <c r="K7">
-        <v>1.042484670672329</v>
+        <v>1.046285596800657</v>
       </c>
       <c r="L7">
-        <v>1.042453488093521</v>
+        <v>1.0555283129064</v>
       </c>
       <c r="M7">
-        <v>1.050790813801141</v>
+        <v>1.060621568330323</v>
       </c>
       <c r="N7">
-        <v>1.032834488342837</v>
+        <v>1.04126909752819</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006544852244996</v>
+        <v>1.034036601617397</v>
       </c>
       <c r="D8">
-        <v>1.028473400695454</v>
+        <v>1.042889435703365</v>
       </c>
       <c r="E8">
-        <v>1.027678836501345</v>
+        <v>1.051912387744539</v>
       </c>
       <c r="F8">
-        <v>1.036117049130177</v>
+        <v>1.057050589397378</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052223704942329</v>
+        <v>1.038594344097919</v>
       </c>
       <c r="J8">
-        <v>1.027964890834134</v>
+        <v>1.039039223721246</v>
       </c>
       <c r="K8">
-        <v>1.039281014428546</v>
+        <v>1.045601839279557</v>
       </c>
       <c r="L8">
-        <v>1.038496491647315</v>
+        <v>1.054600168027766</v>
       </c>
       <c r="M8">
-        <v>1.046829045037523</v>
+        <v>1.05972455092952</v>
       </c>
       <c r="N8">
-        <v>1.029424718888339</v>
+        <v>1.040514778598395</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.995965885795969</v>
+        <v>1.031884313069602</v>
       </c>
       <c r="D9">
-        <v>1.020563573735296</v>
+        <v>1.04124627841246</v>
       </c>
       <c r="E9">
-        <v>1.01842468898326</v>
+        <v>1.04984936901922</v>
       </c>
       <c r="F9">
-        <v>1.026846744897617</v>
+        <v>1.055041414145639</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04908851885382</v>
+        <v>1.038154704219703</v>
       </c>
       <c r="J9">
-        <v>1.021661907731299</v>
+        <v>1.037709515561607</v>
       </c>
       <c r="K9">
-        <v>1.03333160437061</v>
+        <v>1.044391836599019</v>
       </c>
       <c r="L9">
-        <v>1.031225747435563</v>
+        <v>1.052967420522561</v>
       </c>
       <c r="M9">
-        <v>1.039518767357979</v>
+        <v>1.058143102405258</v>
       </c>
       <c r="N9">
-        <v>1.023112784826536</v>
+        <v>1.039183182100649</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9885625520233479</v>
+        <v>1.030451095928143</v>
       </c>
       <c r="D10">
-        <v>1.015040671484099</v>
+        <v>1.040150949297185</v>
       </c>
       <c r="E10">
-        <v>1.012003266638369</v>
+        <v>1.048479259540487</v>
       </c>
       <c r="F10">
-        <v>1.020393325344523</v>
+        <v>1.053704839083325</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046826570197924</v>
+        <v>1.037853239792202</v>
       </c>
       <c r="J10">
-        <v>1.017237422210531</v>
+        <v>1.036821498017306</v>
       </c>
       <c r="K10">
-        <v>1.029143570299841</v>
+        <v>1.043581782282701</v>
       </c>
       <c r="L10">
-        <v>1.026159128436092</v>
+        <v>1.051880855800657</v>
       </c>
       <c r="M10">
-        <v>1.03440388212164</v>
+        <v>1.057088350527776</v>
       </c>
       <c r="N10">
-        <v>1.018682016028833</v>
+        <v>1.038293903469579</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.985265400718457</v>
+        <v>1.029830898675864</v>
       </c>
       <c r="D11">
-        <v>1.012584914459994</v>
+        <v>1.039676703747992</v>
       </c>
       <c r="E11">
-        <v>1.009157317031526</v>
+        <v>1.047887247981223</v>
       </c>
       <c r="F11">
-        <v>1.017528232710377</v>
+        <v>1.053126788353791</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045803871512277</v>
+        <v>1.037720725588308</v>
       </c>
       <c r="J11">
-        <v>1.015264268226161</v>
+        <v>1.036436622273399</v>
       </c>
       <c r="K11">
-        <v>1.027273337197462</v>
+        <v>1.043230230453334</v>
       </c>
       <c r="L11">
-        <v>1.023908581609133</v>
+        <v>1.051410835795375</v>
       </c>
       <c r="M11">
-        <v>1.032126993388882</v>
+        <v>1.056631540042251</v>
       </c>
       <c r="N11">
-        <v>1.016706059939481</v>
+        <v>1.03790848115797</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9840261921319507</v>
+        <v>1.029600590100707</v>
       </c>
       <c r="D12">
-        <v>1.011662612379997</v>
+        <v>1.039500555157505</v>
       </c>
       <c r="E12">
-        <v>1.008089859094492</v>
+        <v>1.047667538573367</v>
       </c>
       <c r="F12">
-        <v>1.016452845822571</v>
+        <v>1.052912180515022</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045417266683465</v>
+        <v>1.037671207387552</v>
       </c>
       <c r="J12">
-        <v>1.014522322654875</v>
+        <v>1.036293609402768</v>
       </c>
       <c r="K12">
-        <v>1.026569734871084</v>
+        <v>1.043099530383339</v>
       </c>
       <c r="L12">
-        <v>1.023063694207768</v>
+        <v>1.051236321260379</v>
       </c>
       <c r="M12">
-        <v>1.03127148073608</v>
+        <v>1.056461847137824</v>
       </c>
       <c r="N12">
-        <v>1.015963060720382</v>
+        <v>1.037765265192659</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9842926755034074</v>
+        <v>1.029649989328452</v>
       </c>
       <c r="D13">
-        <v>1.01186091524967</v>
+        <v>1.039538339273775</v>
       </c>
       <c r="E13">
-        <v>1.008319309243625</v>
+        <v>1.047714658362998</v>
       </c>
       <c r="F13">
-        <v>1.016684034198818</v>
+        <v>1.052958209806722</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045500503094006</v>
+        <v>1.03768184261745</v>
       </c>
       <c r="J13">
-        <v>1.014681888047331</v>
+        <v>1.036324288526875</v>
       </c>
       <c r="K13">
-        <v>1.026721069791566</v>
+        <v>1.043127571317749</v>
       </c>
       <c r="L13">
-        <v>1.023245336765485</v>
+        <v>1.051273751950249</v>
       </c>
       <c r="M13">
-        <v>1.031455440880891</v>
+        <v>1.056498247416642</v>
       </c>
       <c r="N13">
-        <v>1.016122852713997</v>
+        <v>1.03779598788464</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9851632677195706</v>
+        <v>1.029811860061795</v>
       </c>
       <c r="D14">
-        <v>1.012508886010294</v>
+        <v>1.039662143092898</v>
       </c>
       <c r="E14">
-        <v>1.009069294768111</v>
+        <v>1.04786908284744</v>
       </c>
       <c r="F14">
-        <v>1.017439571877768</v>
+        <v>1.053109046633026</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045772053289585</v>
+        <v>1.037716638443574</v>
       </c>
       <c r="J14">
-        <v>1.015203125456562</v>
+        <v>1.036424801858227</v>
       </c>
       <c r="K14">
-        <v>1.027215361367987</v>
+        <v>1.043219429147165</v>
       </c>
       <c r="L14">
-        <v>1.023838927734426</v>
+        <v>1.051396408897047</v>
       </c>
       <c r="M14">
-        <v>1.032056478517636</v>
+        <v>1.056617513434786</v>
       </c>
       <c r="N14">
-        <v>1.016644830340137</v>
+        <v>1.037896643956452</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9856977233477965</v>
+        <v>1.029911601980721</v>
       </c>
       <c r="D15">
-        <v>1.012906766189604</v>
+        <v>1.039738423725017</v>
       </c>
       <c r="E15">
-        <v>1.009529998745533</v>
+        <v>1.047964254096905</v>
       </c>
       <c r="F15">
-        <v>1.017903587527137</v>
+        <v>1.05320199626314</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045938465534839</v>
+        <v>1.03773803802783</v>
       </c>
       <c r="J15">
-        <v>1.015523067754889</v>
+        <v>1.036486724459818</v>
       </c>
       <c r="K15">
-        <v>1.027518717576472</v>
+        <v>1.043276010174283</v>
       </c>
       <c r="L15">
-        <v>1.024203461825159</v>
+        <v>1.051471991444924</v>
       </c>
       <c r="M15">
-        <v>1.032425488623782</v>
+        <v>1.056690995460101</v>
       </c>
       <c r="N15">
-        <v>1.016965226993225</v>
+        <v>1.03795865449524</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9887793825667885</v>
+        <v>1.030492264782708</v>
       </c>
       <c r="D16">
-        <v>1.015202258298144</v>
+        <v>1.040182424360596</v>
       </c>
       <c r="E16">
-        <v>1.012190721150683</v>
+        <v>1.048518575966058</v>
       </c>
       <c r="F16">
-        <v>1.020581936909912</v>
+        <v>1.053743217180246</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046893512652155</v>
+        <v>1.037861992703599</v>
       </c>
       <c r="J16">
-        <v>1.017367131332217</v>
+        <v>1.036847033484948</v>
       </c>
       <c r="K16">
-        <v>1.029266462978806</v>
+        <v>1.043605097004038</v>
       </c>
       <c r="L16">
-        <v>1.026307260629741</v>
+        <v>1.051912059483596</v>
       </c>
       <c r="M16">
-        <v>1.034553645953809</v>
+        <v>1.057118665621594</v>
       </c>
       <c r="N16">
-        <v>1.01881190935235</v>
+        <v>1.038319475200514</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9906874203341174</v>
+        <v>1.030856605680375</v>
       </c>
       <c r="D17">
-        <v>1.016624626033284</v>
+        <v>1.040460945734692</v>
       </c>
       <c r="E17">
-        <v>1.013841850733023</v>
+        <v>1.048866624466368</v>
       </c>
       <c r="F17">
-        <v>1.022242691437781</v>
+        <v>1.054082897925677</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047480849242626</v>
+        <v>1.03793921706846</v>
       </c>
       <c r="J17">
-        <v>1.018508231725788</v>
+        <v>1.03707295056184</v>
       </c>
       <c r="K17">
-        <v>1.030347311728374</v>
+        <v>1.043811312932537</v>
       </c>
       <c r="L17">
-        <v>1.027611458210024</v>
+        <v>1.052188229175053</v>
       </c>
       <c r="M17">
-        <v>1.035871650257428</v>
+        <v>1.05738690701821</v>
       </c>
       <c r="N17">
-        <v>1.019954630239365</v>
+        <v>1.038545713105568</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9917915760237582</v>
+        <v>1.031069157633808</v>
       </c>
       <c r="D18">
-        <v>1.017448097566493</v>
+        <v>1.040623406224887</v>
       </c>
       <c r="E18">
-        <v>1.014798650009249</v>
+        <v>1.049069756245129</v>
       </c>
       <c r="F18">
-        <v>1.023204596288015</v>
+        <v>1.054281094922788</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04781927509903</v>
+        <v>1.037984069829852</v>
       </c>
       <c r="J18">
-        <v>1.019168315059186</v>
+        <v>1.037204689537731</v>
       </c>
       <c r="K18">
-        <v>1.030972300614831</v>
+        <v>1.043931518613793</v>
       </c>
       <c r="L18">
-        <v>1.028366736821816</v>
+        <v>1.05234935951769</v>
       </c>
       <c r="M18">
-        <v>1.036634458651194</v>
+        <v>1.057543358342807</v>
       </c>
       <c r="N18">
-        <v>1.02061565096681</v>
+        <v>1.038677639165916</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9921665991500875</v>
+        <v>1.031141638786789</v>
       </c>
       <c r="D19">
-        <v>1.017727846867289</v>
+        <v>1.040678801634981</v>
       </c>
       <c r="E19">
-        <v>1.015123844310525</v>
+        <v>1.049139039406066</v>
       </c>
       <c r="F19">
-        <v>1.023531445901143</v>
+        <v>1.054348686289415</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04793397108316</v>
+        <v>1.037999331061494</v>
       </c>
       <c r="J19">
-        <v>1.019392465496026</v>
+        <v>1.037249603220937</v>
       </c>
       <c r="K19">
-        <v>1.03118449214639</v>
+        <v>1.043972492622767</v>
       </c>
       <c r="L19">
-        <v>1.028623357293856</v>
+        <v>1.052404308434754</v>
       </c>
       <c r="M19">
-        <v>1.036893558467467</v>
+        <v>1.057596702577994</v>
       </c>
       <c r="N19">
-        <v>1.020840119722981</v>
+        <v>1.038722616631703</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9904836184263651</v>
+        <v>1.030817511405479</v>
       </c>
       <c r="D20">
-        <v>1.016472661037643</v>
+        <v>1.040431062635607</v>
       </c>
       <c r="E20">
-        <v>1.013665352999158</v>
+        <v>1.048829269632015</v>
       </c>
       <c r="F20">
-        <v>1.022065213800476</v>
+        <v>1.054046446458929</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047418265239697</v>
+        <v>1.037930951366238</v>
       </c>
       <c r="J20">
-        <v>1.018386374388283</v>
+        <v>1.037048715372919</v>
       </c>
       <c r="K20">
-        <v>1.030231913488213</v>
+        <v>1.043789195828407</v>
       </c>
       <c r="L20">
-        <v>1.027472095558715</v>
+        <v>1.052158594092931</v>
       </c>
       <c r="M20">
-        <v>1.035730860578346</v>
+        <v>1.057358128212252</v>
       </c>
       <c r="N20">
-        <v>1.019832599850465</v>
+        <v>1.038521443499899</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9849073066410932</v>
+        <v>1.029764191493413</v>
       </c>
       <c r="D21">
-        <v>1.01231835813798</v>
+        <v>1.039625685740263</v>
       </c>
       <c r="E21">
-        <v>1.008848732617144</v>
+        <v>1.047823603427407</v>
       </c>
       <c r="F21">
-        <v>1.017217397549493</v>
+        <v>1.053064626010616</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045692276202116</v>
+        <v>1.037706400120264</v>
       </c>
       <c r="J21">
-        <v>1.015049886743527</v>
+        <v>1.036395204639608</v>
       </c>
       <c r="K21">
-        <v>1.027070054107522</v>
+        <v>1.043192382556597</v>
       </c>
       <c r="L21">
-        <v>1.023664380129327</v>
+        <v>1.051360287490617</v>
       </c>
       <c r="M21">
-        <v>1.031879761456613</v>
+        <v>1.056582392917932</v>
       </c>
       <c r="N21">
-        <v>1.016491374010552</v>
+        <v>1.037867004706388</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9813169510792136</v>
+        <v>1.029102276784452</v>
       </c>
       <c r="D22">
-        <v>1.009647552834325</v>
+        <v>1.03911935639225</v>
       </c>
       <c r="E22">
-        <v>1.005760196184159</v>
+        <v>1.047192401456281</v>
       </c>
       <c r="F22">
-        <v>1.014104498749137</v>
+        <v>1.05244793020747</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044568021063143</v>
+        <v>1.037563500563535</v>
       </c>
       <c r="J22">
-        <v>1.012899642064927</v>
+        <v>1.035984011007554</v>
       </c>
       <c r="K22">
-        <v>1.025030282295273</v>
+        <v>1.0428164597874</v>
       </c>
       <c r="L22">
-        <v>1.021218399653113</v>
+        <v>1.050858776609538</v>
       </c>
       <c r="M22">
-        <v>1.029401627072039</v>
+        <v>1.056094581889362</v>
       </c>
       <c r="N22">
-        <v>1.014338075737872</v>
+        <v>1.037455227132212</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9832285255205154</v>
+        <v>1.029453136875822</v>
       </c>
       <c r="D23">
-        <v>1.011069136679366</v>
+        <v>1.039387766599077</v>
       </c>
       <c r="E23">
-        <v>1.007403368884339</v>
+        <v>1.047526908765044</v>
       </c>
       <c r="F23">
-        <v>1.015761045026185</v>
+        <v>1.052774793647619</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045167793027845</v>
+        <v>1.037639416689265</v>
       </c>
       <c r="J23">
-        <v>1.014044646865244</v>
+        <v>1.036202021174082</v>
       </c>
       <c r="K23">
-        <v>1.026116647323897</v>
+        <v>1.04301580790529</v>
       </c>
       <c r="L23">
-        <v>1.022520129186004</v>
+        <v>1.051124597149625</v>
       </c>
       <c r="M23">
-        <v>1.030720872482459</v>
+        <v>1.056353186475776</v>
       </c>
       <c r="N23">
-        <v>1.015484706576339</v>
+        <v>1.037673546898182</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9905757347839004</v>
+        <v>1.030835176307918</v>
       </c>
       <c r="D24">
-        <v>1.016541346516217</v>
+        <v>1.040444565510537</v>
       </c>
       <c r="E24">
-        <v>1.013745124087528</v>
+        <v>1.048846148300097</v>
       </c>
       <c r="F24">
-        <v>1.022145429234612</v>
+        <v>1.054062917100954</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047446557088296</v>
+        <v>1.037934686871193</v>
       </c>
       <c r="J24">
-        <v>1.018441453443981</v>
+        <v>1.037059666318685</v>
       </c>
       <c r="K24">
-        <v>1.030284073805898</v>
+        <v>1.043799189832458</v>
       </c>
       <c r="L24">
-        <v>1.027535084316036</v>
+        <v>1.052171984771273</v>
       </c>
       <c r="M24">
-        <v>1.03579449576395</v>
+        <v>1.057371132144883</v>
       </c>
       <c r="N24">
-        <v>1.019887757124739</v>
+        <v>1.038532409997264</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9987599818539927</v>
+        <v>1.03244044624955</v>
       </c>
       <c r="D25">
-        <v>1.02265084436973</v>
+        <v>1.041671061116533</v>
       </c>
       <c r="E25">
-        <v>1.020859718058834</v>
+        <v>1.050381792528144</v>
       </c>
       <c r="F25">
-        <v>1.029289612563075</v>
+        <v>1.055560334064334</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049928528665653</v>
+        <v>1.038269840243844</v>
       </c>
       <c r="J25">
-        <v>1.02332914974111</v>
+        <v>1.038053553720902</v>
       </c>
       <c r="K25">
-        <v>1.034907424122194</v>
+        <v>1.044705252920082</v>
       </c>
       <c r="L25">
-        <v>1.03314261940832</v>
+        <v>1.05338918965976</v>
       </c>
       <c r="M25">
-        <v>1.041449644382011</v>
+        <v>1.058552030260016</v>
       </c>
       <c r="N25">
-        <v>1.024782394511237</v>
+        <v>1.039527708833593</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033721973275866</v>
+        <v>1.005037319994605</v>
       </c>
       <c r="D2">
-        <v>1.042649370212068</v>
+        <v>1.027345138984632</v>
       </c>
       <c r="E2">
-        <v>1.051610385697098</v>
+        <v>1.026354243075922</v>
       </c>
       <c r="F2">
-        <v>1.056756728469804</v>
+        <v>1.034792481336525</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038531091474237</v>
+        <v>1.051784813890394</v>
       </c>
       <c r="J2">
-        <v>1.038845142350186</v>
+        <v>1.02706840252657</v>
       </c>
       <c r="K2">
-        <v>1.045425461146601</v>
+        <v>1.038436217192302</v>
       </c>
       <c r="L2">
-        <v>1.054361410229219</v>
+        <v>1.037458236363149</v>
       </c>
       <c r="M2">
-        <v>1.059493565495453</v>
+        <v>1.045787482123359</v>
       </c>
       <c r="N2">
-        <v>1.040320421609527</v>
+        <v>1.02852695746455</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03465313759208</v>
+        <v>1.009461350193529</v>
       </c>
       <c r="D3">
-        <v>1.04335971836418</v>
+        <v>1.030657015182793</v>
       </c>
       <c r="E3">
-        <v>1.052504612184161</v>
+        <v>1.030247148879031</v>
       </c>
       <c r="F3">
-        <v>1.057626584507984</v>
+        <v>1.038682934023716</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038717252178612</v>
+        <v>1.053064551478765</v>
       </c>
       <c r="J3">
-        <v>1.039419231887186</v>
+        <v>1.029697370710333</v>
       </c>
       <c r="K3">
-        <v>1.04594694719802</v>
+        <v>1.040912103186805</v>
       </c>
       <c r="L3">
-        <v>1.055068107682653</v>
+        <v>1.040507103907116</v>
       </c>
       <c r="M3">
-        <v>1.060176980543706</v>
+        <v>1.048843674231818</v>
       </c>
       <c r="N3">
-        <v>1.040895326419518</v>
+        <v>1.031159659084681</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035255964416308</v>
+        <v>1.012265492201469</v>
       </c>
       <c r="D4">
-        <v>1.043819356766045</v>
+        <v>1.032757455053596</v>
       </c>
       <c r="E4">
-        <v>1.053084226840176</v>
+        <v>1.032723806908323</v>
       </c>
       <c r="F4">
-        <v>1.058189971051008</v>
+        <v>1.04115416538089</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038836072506762</v>
+        <v>1.053862162178115</v>
       </c>
       <c r="J4">
-        <v>1.039790388737462</v>
+        <v>1.031360565531534</v>
       </c>
       <c r="K4">
-        <v>1.046283706624339</v>
+        <v>1.042475970064802</v>
       </c>
       <c r="L4">
-        <v>1.055525741405233</v>
+        <v>1.04244269693742</v>
       </c>
       <c r="M4">
-        <v>1.060619085110495</v>
+        <v>1.050780027254292</v>
       </c>
       <c r="N4">
-        <v>1.041267010355094</v>
+        <v>1.032825215833299</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035509463894888</v>
+        <v>1.013430829412099</v>
       </c>
       <c r="D5">
-        <v>1.044012586219315</v>
+        <v>1.033630588008561</v>
       </c>
       <c r="E5">
-        <v>1.053328132383304</v>
+        <v>1.033755199295205</v>
       </c>
       <c r="F5">
-        <v>1.058426944438578</v>
+        <v>1.042182370757329</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038885631681834</v>
+        <v>1.054190329366393</v>
       </c>
       <c r="J5">
-        <v>1.039946346059297</v>
+        <v>1.03205095897044</v>
       </c>
       <c r="K5">
-        <v>1.046425117097636</v>
+        <v>1.04312451973935</v>
       </c>
       <c r="L5">
-        <v>1.055718213885554</v>
+        <v>1.043247779818049</v>
       </c>
       <c r="M5">
-        <v>1.060804918051059</v>
+        <v>1.051584490197947</v>
       </c>
       <c r="N5">
-        <v>1.041423189154214</v>
+        <v>1.033516589710078</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035552031710929</v>
+        <v>1.013625715150553</v>
       </c>
       <c r="D6">
-        <v>1.044045030102976</v>
+        <v>1.033776619214623</v>
       </c>
       <c r="E6">
-        <v>1.0533690989646</v>
+        <v>1.033927809710641</v>
       </c>
       <c r="F6">
-        <v>1.058466740637833</v>
+        <v>1.042354393327182</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038893929824892</v>
+        <v>1.054245014977799</v>
       </c>
       <c r="J6">
-        <v>1.039972527433946</v>
+        <v>1.032166369701371</v>
       </c>
       <c r="K6">
-        <v>1.046448850935805</v>
+        <v>1.043232899071521</v>
       </c>
       <c r="L6">
-        <v>1.055750535706781</v>
+        <v>1.043382457773571</v>
       </c>
       <c r="M6">
-        <v>1.060836118549567</v>
+        <v>1.051719009342727</v>
       </c>
       <c r="N6">
-        <v>1.041449407709419</v>
+        <v>1.033632164337484</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035259351410743</v>
+        <v>1.01228111601432</v>
       </c>
       <c r="D7">
-        <v>1.043821938719281</v>
+        <v>1.032769160382042</v>
       </c>
       <c r="E7">
-        <v>1.053087484994404</v>
+        <v>1.03273762647692</v>
       </c>
       <c r="F7">
-        <v>1.058193137009123</v>
+        <v>1.041167945905792</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038836736263594</v>
+        <v>1.053866575064895</v>
       </c>
       <c r="J7">
-        <v>1.039792472950736</v>
+        <v>1.031369824891718</v>
       </c>
       <c r="K7">
-        <v>1.046285596800657</v>
+        <v>1.042484670672329</v>
       </c>
       <c r="L7">
-        <v>1.0555283129064</v>
+        <v>1.042453488093521</v>
       </c>
       <c r="M7">
-        <v>1.060621568330323</v>
+        <v>1.050790813801141</v>
       </c>
       <c r="N7">
-        <v>1.04126909752819</v>
+        <v>1.032834488342837</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034036601617397</v>
+        <v>1.006544852244996</v>
       </c>
       <c r="D8">
-        <v>1.042889435703365</v>
+        <v>1.028473400695454</v>
       </c>
       <c r="E8">
-        <v>1.051912387744539</v>
+        <v>1.027678836501345</v>
       </c>
       <c r="F8">
-        <v>1.057050589397378</v>
+        <v>1.036117049130177</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038594344097919</v>
+        <v>1.052223704942329</v>
       </c>
       <c r="J8">
-        <v>1.039039223721246</v>
+        <v>1.027964890834134</v>
       </c>
       <c r="K8">
-        <v>1.045601839279557</v>
+        <v>1.039281014428546</v>
       </c>
       <c r="L8">
-        <v>1.054600168027766</v>
+        <v>1.038496491647315</v>
       </c>
       <c r="M8">
-        <v>1.05972455092952</v>
+        <v>1.046829045037523</v>
       </c>
       <c r="N8">
-        <v>1.040514778598395</v>
+        <v>1.029424718888339</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031884313069602</v>
+        <v>0.9959658857959695</v>
       </c>
       <c r="D9">
-        <v>1.04124627841246</v>
+        <v>1.020563573735297</v>
       </c>
       <c r="E9">
-        <v>1.04984936901922</v>
+        <v>1.01842468898326</v>
       </c>
       <c r="F9">
-        <v>1.055041414145639</v>
+        <v>1.026846744897617</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038154704219703</v>
+        <v>1.04908851885382</v>
       </c>
       <c r="J9">
-        <v>1.037709515561607</v>
+        <v>1.021661907731299</v>
       </c>
       <c r="K9">
-        <v>1.044391836599019</v>
+        <v>1.033331604370611</v>
       </c>
       <c r="L9">
-        <v>1.052967420522561</v>
+        <v>1.031225747435563</v>
       </c>
       <c r="M9">
-        <v>1.058143102405258</v>
+        <v>1.039518767357979</v>
       </c>
       <c r="N9">
-        <v>1.039183182100649</v>
+        <v>1.023112784826537</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030451095928143</v>
+        <v>0.9885625520233485</v>
       </c>
       <c r="D10">
-        <v>1.040150949297185</v>
+        <v>1.0150406714841</v>
       </c>
       <c r="E10">
-        <v>1.048479259540487</v>
+        <v>1.01200326663837</v>
       </c>
       <c r="F10">
-        <v>1.053704839083325</v>
+        <v>1.020393325344524</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037853239792202</v>
+        <v>1.046826570197924</v>
       </c>
       <c r="J10">
-        <v>1.036821498017306</v>
+        <v>1.017237422210532</v>
       </c>
       <c r="K10">
-        <v>1.043581782282701</v>
+        <v>1.029143570299842</v>
       </c>
       <c r="L10">
-        <v>1.051880855800657</v>
+        <v>1.026159128436093</v>
       </c>
       <c r="M10">
-        <v>1.057088350527776</v>
+        <v>1.034403882121641</v>
       </c>
       <c r="N10">
-        <v>1.038293903469579</v>
+        <v>1.018682016028834</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029830898675864</v>
+        <v>0.9852654007184571</v>
       </c>
       <c r="D11">
-        <v>1.039676703747992</v>
+        <v>1.012584914459994</v>
       </c>
       <c r="E11">
-        <v>1.047887247981223</v>
+        <v>1.009157317031526</v>
       </c>
       <c r="F11">
-        <v>1.053126788353791</v>
+        <v>1.017528232710377</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037720725588308</v>
+        <v>1.045803871512277</v>
       </c>
       <c r="J11">
-        <v>1.036436622273399</v>
+        <v>1.015264268226161</v>
       </c>
       <c r="K11">
-        <v>1.043230230453334</v>
+        <v>1.027273337197462</v>
       </c>
       <c r="L11">
-        <v>1.051410835795375</v>
+        <v>1.023908581609134</v>
       </c>
       <c r="M11">
-        <v>1.056631540042251</v>
+        <v>1.032126993388883</v>
       </c>
       <c r="N11">
-        <v>1.03790848115797</v>
+        <v>1.016706059939481</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029600590100707</v>
+        <v>0.9840261921319517</v>
       </c>
       <c r="D12">
-        <v>1.039500555157505</v>
+        <v>1.011662612379998</v>
       </c>
       <c r="E12">
-        <v>1.047667538573367</v>
+        <v>1.008089859094492</v>
       </c>
       <c r="F12">
-        <v>1.052912180515022</v>
+        <v>1.016452845822572</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037671207387552</v>
+        <v>1.045417266683466</v>
       </c>
       <c r="J12">
-        <v>1.036293609402768</v>
+        <v>1.014522322654876</v>
       </c>
       <c r="K12">
-        <v>1.043099530383339</v>
+        <v>1.026569734871084</v>
       </c>
       <c r="L12">
-        <v>1.051236321260379</v>
+        <v>1.023063694207769</v>
       </c>
       <c r="M12">
-        <v>1.056461847137824</v>
+        <v>1.031271480736081</v>
       </c>
       <c r="N12">
-        <v>1.037765265192659</v>
+        <v>1.015963060720383</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029649989328452</v>
+        <v>0.984292675503408</v>
       </c>
       <c r="D13">
-        <v>1.039538339273775</v>
+        <v>1.011860915249671</v>
       </c>
       <c r="E13">
-        <v>1.047714658362998</v>
+        <v>1.008319309243625</v>
       </c>
       <c r="F13">
-        <v>1.052958209806722</v>
+        <v>1.016684034198818</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03768184261745</v>
+        <v>1.045500503094006</v>
       </c>
       <c r="J13">
-        <v>1.036324288526875</v>
+        <v>1.014681888047332</v>
       </c>
       <c r="K13">
-        <v>1.043127571317749</v>
+        <v>1.026721069791567</v>
       </c>
       <c r="L13">
-        <v>1.051273751950249</v>
+        <v>1.023245336765485</v>
       </c>
       <c r="M13">
-        <v>1.056498247416642</v>
+        <v>1.031455440880891</v>
       </c>
       <c r="N13">
-        <v>1.03779598788464</v>
+        <v>1.016122852713998</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029811860061795</v>
+        <v>0.9851632677195691</v>
       </c>
       <c r="D14">
-        <v>1.039662143092898</v>
+        <v>1.012508886010293</v>
       </c>
       <c r="E14">
-        <v>1.04786908284744</v>
+        <v>1.00906929476811</v>
       </c>
       <c r="F14">
-        <v>1.053109046633026</v>
+        <v>1.017439571877766</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037716638443574</v>
+        <v>1.045772053289584</v>
       </c>
       <c r="J14">
-        <v>1.036424801858227</v>
+        <v>1.015203125456561</v>
       </c>
       <c r="K14">
-        <v>1.043219429147165</v>
+        <v>1.027215361367986</v>
       </c>
       <c r="L14">
-        <v>1.051396408897047</v>
+        <v>1.023838927734425</v>
       </c>
       <c r="M14">
-        <v>1.056617513434786</v>
+        <v>1.032056478517635</v>
       </c>
       <c r="N14">
-        <v>1.037896643956452</v>
+        <v>1.016644830340135</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029911601980721</v>
+        <v>0.9856977233477968</v>
       </c>
       <c r="D15">
-        <v>1.039738423725017</v>
+        <v>1.012906766189604</v>
       </c>
       <c r="E15">
-        <v>1.047964254096905</v>
+        <v>1.009529998745533</v>
       </c>
       <c r="F15">
-        <v>1.05320199626314</v>
+        <v>1.017903587527138</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03773803802783</v>
+        <v>1.045938465534839</v>
       </c>
       <c r="J15">
-        <v>1.036486724459818</v>
+        <v>1.015523067754889</v>
       </c>
       <c r="K15">
-        <v>1.043276010174283</v>
+        <v>1.027518717576472</v>
       </c>
       <c r="L15">
-        <v>1.051471991444924</v>
+        <v>1.024203461825159</v>
       </c>
       <c r="M15">
-        <v>1.056690995460101</v>
+        <v>1.032425488623782</v>
       </c>
       <c r="N15">
-        <v>1.03795865449524</v>
+        <v>1.016965226993225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030492264782708</v>
+        <v>0.9887793825667883</v>
       </c>
       <c r="D16">
-        <v>1.040182424360596</v>
+        <v>1.015202258298145</v>
       </c>
       <c r="E16">
-        <v>1.048518575966058</v>
+        <v>1.012190721150683</v>
       </c>
       <c r="F16">
-        <v>1.053743217180246</v>
+        <v>1.020581936909912</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037861992703599</v>
+        <v>1.046893512652155</v>
       </c>
       <c r="J16">
-        <v>1.036847033484948</v>
+        <v>1.017367131332218</v>
       </c>
       <c r="K16">
-        <v>1.043605097004038</v>
+        <v>1.029266462978806</v>
       </c>
       <c r="L16">
-        <v>1.051912059483596</v>
+        <v>1.026307260629741</v>
       </c>
       <c r="M16">
-        <v>1.057118665621594</v>
+        <v>1.03455364595381</v>
       </c>
       <c r="N16">
-        <v>1.038319475200514</v>
+        <v>1.01881190935235</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030856605680375</v>
+        <v>0.9906874203341168</v>
       </c>
       <c r="D17">
-        <v>1.040460945734692</v>
+        <v>1.016624626033283</v>
       </c>
       <c r="E17">
-        <v>1.048866624466368</v>
+        <v>1.013841850733022</v>
       </c>
       <c r="F17">
-        <v>1.054082897925677</v>
+        <v>1.02224269143778</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03793921706846</v>
+        <v>1.047480849242626</v>
       </c>
       <c r="J17">
-        <v>1.03707295056184</v>
+        <v>1.018508231725787</v>
       </c>
       <c r="K17">
-        <v>1.043811312932537</v>
+        <v>1.030347311728373</v>
       </c>
       <c r="L17">
-        <v>1.052188229175053</v>
+        <v>1.027611458210024</v>
       </c>
       <c r="M17">
-        <v>1.05738690701821</v>
+        <v>1.035871650257427</v>
       </c>
       <c r="N17">
-        <v>1.038545713105568</v>
+        <v>1.019954630239365</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031069157633808</v>
+        <v>0.9917915760237584</v>
       </c>
       <c r="D18">
-        <v>1.040623406224887</v>
+        <v>1.017448097566493</v>
       </c>
       <c r="E18">
-        <v>1.049069756245129</v>
+        <v>1.014798650009249</v>
       </c>
       <c r="F18">
-        <v>1.054281094922788</v>
+        <v>1.023204596288015</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037984069829852</v>
+        <v>1.04781927509903</v>
       </c>
       <c r="J18">
-        <v>1.037204689537731</v>
+        <v>1.019168315059186</v>
       </c>
       <c r="K18">
-        <v>1.043931518613793</v>
+        <v>1.030972300614831</v>
       </c>
       <c r="L18">
-        <v>1.05234935951769</v>
+        <v>1.028366736821816</v>
       </c>
       <c r="M18">
-        <v>1.057543358342807</v>
+        <v>1.036634458651195</v>
       </c>
       <c r="N18">
-        <v>1.038677639165916</v>
+        <v>1.02061565096681</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031141638786789</v>
+        <v>0.9921665991500885</v>
       </c>
       <c r="D19">
-        <v>1.040678801634981</v>
+        <v>1.01772784686729</v>
       </c>
       <c r="E19">
-        <v>1.049139039406066</v>
+        <v>1.015123844310526</v>
       </c>
       <c r="F19">
-        <v>1.054348686289415</v>
+        <v>1.023531445901144</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037999331061494</v>
+        <v>1.04793397108316</v>
       </c>
       <c r="J19">
-        <v>1.037249603220937</v>
+        <v>1.019392465496027</v>
       </c>
       <c r="K19">
-        <v>1.043972492622767</v>
+        <v>1.031184492146391</v>
       </c>
       <c r="L19">
-        <v>1.052404308434754</v>
+        <v>1.028623357293857</v>
       </c>
       <c r="M19">
-        <v>1.057596702577994</v>
+        <v>1.036893558467468</v>
       </c>
       <c r="N19">
-        <v>1.038722616631703</v>
+        <v>1.020840119722981</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030817511405479</v>
+        <v>0.9904836184263647</v>
       </c>
       <c r="D20">
-        <v>1.040431062635607</v>
+        <v>1.016472661037643</v>
       </c>
       <c r="E20">
-        <v>1.048829269632015</v>
+        <v>1.013665352999158</v>
       </c>
       <c r="F20">
-        <v>1.054046446458929</v>
+        <v>1.022065213800476</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037930951366238</v>
+        <v>1.047418265239697</v>
       </c>
       <c r="J20">
-        <v>1.037048715372919</v>
+        <v>1.018386374388283</v>
       </c>
       <c r="K20">
-        <v>1.043789195828407</v>
+        <v>1.030231913488213</v>
       </c>
       <c r="L20">
-        <v>1.052158594092931</v>
+        <v>1.027472095558715</v>
       </c>
       <c r="M20">
-        <v>1.057358128212252</v>
+        <v>1.035730860578346</v>
       </c>
       <c r="N20">
-        <v>1.038521443499899</v>
+        <v>1.019832599850464</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029764191493413</v>
+        <v>0.9849073066410938</v>
       </c>
       <c r="D21">
-        <v>1.039625685740263</v>
+        <v>1.012318358137981</v>
       </c>
       <c r="E21">
-        <v>1.047823603427407</v>
+        <v>1.008848732617146</v>
       </c>
       <c r="F21">
-        <v>1.053064626010616</v>
+        <v>1.017217397549494</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037706400120264</v>
+        <v>1.045692276202117</v>
       </c>
       <c r="J21">
-        <v>1.036395204639608</v>
+        <v>1.015049886743528</v>
       </c>
       <c r="K21">
-        <v>1.043192382556597</v>
+        <v>1.027070054107523</v>
       </c>
       <c r="L21">
-        <v>1.051360287490617</v>
+        <v>1.023664380129328</v>
       </c>
       <c r="M21">
-        <v>1.056582392917932</v>
+        <v>1.031879761456614</v>
       </c>
       <c r="N21">
-        <v>1.037867004706388</v>
+        <v>1.016491374010553</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029102276784452</v>
+        <v>0.9813169510792137</v>
       </c>
       <c r="D22">
-        <v>1.03911935639225</v>
+        <v>1.009647552834325</v>
       </c>
       <c r="E22">
-        <v>1.047192401456281</v>
+        <v>1.00576019618416</v>
       </c>
       <c r="F22">
-        <v>1.05244793020747</v>
+        <v>1.014104498749137</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037563500563535</v>
+        <v>1.044568021063143</v>
       </c>
       <c r="J22">
-        <v>1.035984011007554</v>
+        <v>1.012899642064927</v>
       </c>
       <c r="K22">
-        <v>1.0428164597874</v>
+        <v>1.025030282295273</v>
       </c>
       <c r="L22">
-        <v>1.050858776609538</v>
+        <v>1.021218399653113</v>
       </c>
       <c r="M22">
-        <v>1.056094581889362</v>
+        <v>1.029401627072039</v>
       </c>
       <c r="N22">
-        <v>1.037455227132212</v>
+        <v>1.014338075737872</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029453136875822</v>
+        <v>0.9832285255205154</v>
       </c>
       <c r="D23">
-        <v>1.039387766599077</v>
+        <v>1.011069136679365</v>
       </c>
       <c r="E23">
-        <v>1.047526908765044</v>
+        <v>1.007403368884339</v>
       </c>
       <c r="F23">
-        <v>1.052774793647619</v>
+        <v>1.015761045026185</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037639416689265</v>
+        <v>1.045167793027844</v>
       </c>
       <c r="J23">
-        <v>1.036202021174082</v>
+        <v>1.014044646865244</v>
       </c>
       <c r="K23">
-        <v>1.04301580790529</v>
+        <v>1.026116647323897</v>
       </c>
       <c r="L23">
-        <v>1.051124597149625</v>
+        <v>1.022520129186003</v>
       </c>
       <c r="M23">
-        <v>1.056353186475776</v>
+        <v>1.030720872482459</v>
       </c>
       <c r="N23">
-        <v>1.037673546898182</v>
+        <v>1.015484706576339</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030835176307918</v>
+        <v>0.9905757347839005</v>
       </c>
       <c r="D24">
-        <v>1.040444565510537</v>
+        <v>1.016541346516216</v>
       </c>
       <c r="E24">
-        <v>1.048846148300097</v>
+        <v>1.013745124087528</v>
       </c>
       <c r="F24">
-        <v>1.054062917100954</v>
+        <v>1.022145429234612</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037934686871193</v>
+        <v>1.047446557088296</v>
       </c>
       <c r="J24">
-        <v>1.037059666318685</v>
+        <v>1.018441453443981</v>
       </c>
       <c r="K24">
-        <v>1.043799189832458</v>
+        <v>1.030284073805898</v>
       </c>
       <c r="L24">
-        <v>1.052171984771273</v>
+        <v>1.027535084316037</v>
       </c>
       <c r="M24">
-        <v>1.057371132144883</v>
+        <v>1.03579449576395</v>
       </c>
       <c r="N24">
-        <v>1.038532409997264</v>
+        <v>1.019887757124738</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03244044624955</v>
+        <v>0.9987599818539933</v>
       </c>
       <c r="D25">
-        <v>1.041671061116533</v>
+        <v>1.02265084436973</v>
       </c>
       <c r="E25">
-        <v>1.050381792528144</v>
+        <v>1.020859718058834</v>
       </c>
       <c r="F25">
-        <v>1.055560334064334</v>
+        <v>1.029289612563075</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038269840243844</v>
+        <v>1.049928528665654</v>
       </c>
       <c r="J25">
-        <v>1.038053553720902</v>
+        <v>1.023329149741111</v>
       </c>
       <c r="K25">
-        <v>1.044705252920082</v>
+        <v>1.034907424122194</v>
       </c>
       <c r="L25">
-        <v>1.05338918965976</v>
+        <v>1.03314261940832</v>
       </c>
       <c r="M25">
-        <v>1.058552030260016</v>
+        <v>1.041449644382011</v>
       </c>
       <c r="N25">
-        <v>1.039527708833593</v>
+        <v>1.024782394511237</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005037319994605</v>
+        <v>1.010034301973656</v>
       </c>
       <c r="D2">
-        <v>1.027345138984632</v>
+        <v>1.028215814237363</v>
       </c>
       <c r="E2">
-        <v>1.026354243075922</v>
+        <v>1.026250869793314</v>
       </c>
       <c r="F2">
-        <v>1.034792481336525</v>
+        <v>1.035062356530753</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051784813890394</v>
+        <v>1.050732192953351</v>
       </c>
       <c r="J2">
-        <v>1.02706840252657</v>
+        <v>1.031918975639584</v>
       </c>
       <c r="K2">
-        <v>1.038436217192302</v>
+        <v>1.039295570012306</v>
       </c>
       <c r="L2">
-        <v>1.037458236363149</v>
+        <v>1.037356212220505</v>
       </c>
       <c r="M2">
-        <v>1.045787482123359</v>
+        <v>1.046053908123647</v>
       </c>
       <c r="N2">
-        <v>1.02852695746455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014603426536669</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045020955676467</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038855647472664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009461350193529</v>
+        <v>1.013170914064823</v>
       </c>
       <c r="D3">
-        <v>1.030657015182793</v>
+        <v>1.030267557348039</v>
       </c>
       <c r="E3">
-        <v>1.030247148879031</v>
+        <v>1.029370759898665</v>
       </c>
       <c r="F3">
-        <v>1.038682934023716</v>
+        <v>1.037899450689397</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053064551478765</v>
+        <v>1.051516696159526</v>
       </c>
       <c r="J3">
-        <v>1.029697370710333</v>
+        <v>1.033308854624844</v>
       </c>
       <c r="K3">
-        <v>1.040912103186805</v>
+        <v>1.040527269918909</v>
       </c>
       <c r="L3">
-        <v>1.040507103907116</v>
+        <v>1.039641137869256</v>
       </c>
       <c r="M3">
-        <v>1.048843674231818</v>
+        <v>1.048069321558865</v>
       </c>
       <c r="N3">
-        <v>1.031159659084681</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015065313344569</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04661600862553</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039723899969306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012265492201469</v>
+        <v>1.015166825818589</v>
       </c>
       <c r="D4">
-        <v>1.032757455053596</v>
+        <v>1.03157638029874</v>
       </c>
       <c r="E4">
-        <v>1.032723806908323</v>
+        <v>1.031364044998496</v>
       </c>
       <c r="F4">
-        <v>1.04115416538089</v>
+        <v>1.039711416811667</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053862162178115</v>
+        <v>1.052006604425475</v>
       </c>
       <c r="J4">
-        <v>1.031360565531534</v>
+        <v>1.034190361748239</v>
       </c>
       <c r="K4">
-        <v>1.042475970064802</v>
+        <v>1.041308076735485</v>
       </c>
       <c r="L4">
-        <v>1.04244269693742</v>
+        <v>1.041098115151444</v>
       </c>
       <c r="M4">
-        <v>1.050780027254292</v>
+        <v>1.049353067849315</v>
       </c>
       <c r="N4">
-        <v>1.032825215833299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015358360940831</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047631998516681</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040276891219017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013430829412099</v>
+        <v>1.016000449755118</v>
       </c>
       <c r="D5">
-        <v>1.033630588008561</v>
+        <v>1.032125829830756</v>
       </c>
       <c r="E5">
-        <v>1.033755199295205</v>
+        <v>1.032197132013967</v>
       </c>
       <c r="F5">
-        <v>1.042182370757329</v>
+        <v>1.040468533619851</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054190329366393</v>
+        <v>1.052210257787227</v>
       </c>
       <c r="J5">
-        <v>1.03205095897044</v>
+        <v>1.034559107241579</v>
       </c>
       <c r="K5">
-        <v>1.04312451973935</v>
+        <v>1.04163610983966</v>
       </c>
       <c r="L5">
-        <v>1.043247779818049</v>
+        <v>1.041706636048089</v>
       </c>
       <c r="M5">
-        <v>1.051584490197947</v>
+        <v>1.049888904806841</v>
       </c>
       <c r="N5">
-        <v>1.033516589710078</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015481210793861</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.0480560732781</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040516002981245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013625715150553</v>
+        <v>1.016142890891095</v>
       </c>
       <c r="D6">
-        <v>1.033776619214623</v>
+        <v>1.032222241422061</v>
       </c>
       <c r="E6">
-        <v>1.033927809710641</v>
+        <v>1.032337949866446</v>
       </c>
       <c r="F6">
-        <v>1.042354393327182</v>
+        <v>1.040596463642025</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054245014977799</v>
+        <v>1.052246500876818</v>
       </c>
       <c r="J6">
-        <v>1.032166369701371</v>
+        <v>1.034623636222033</v>
       </c>
       <c r="K6">
-        <v>1.043232899071521</v>
+        <v>1.041695331624859</v>
       </c>
       <c r="L6">
-        <v>1.043382457773571</v>
+        <v>1.041809786562132</v>
       </c>
       <c r="M6">
-        <v>1.051719009342727</v>
+        <v>1.049979714563718</v>
       </c>
       <c r="N6">
-        <v>1.033632164337484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01550300150944</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048127942365414</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040566615930064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01228111601432</v>
+        <v>1.015185830247015</v>
       </c>
       <c r="D7">
-        <v>1.032769160382042</v>
+        <v>1.03159553348407</v>
       </c>
       <c r="E7">
-        <v>1.03273762647692</v>
+        <v>1.03137865558356</v>
       </c>
       <c r="F7">
-        <v>1.041167945905792</v>
+        <v>1.03972456953345</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053866575064895</v>
+        <v>1.05201546545416</v>
       </c>
       <c r="J7">
-        <v>1.031369824891718</v>
+        <v>1.034202947780964</v>
       </c>
       <c r="K7">
-        <v>1.042484670672329</v>
+        <v>1.041324137231153</v>
       </c>
       <c r="L7">
-        <v>1.042453488093521</v>
+        <v>1.041109682923266</v>
       </c>
       <c r="M7">
-        <v>1.050790813801141</v>
+        <v>1.049363227709355</v>
       </c>
       <c r="N7">
-        <v>1.032834488342837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015363342891375</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047640039286122</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.040308344609723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006544852244996</v>
+        <v>1.011111050616877</v>
       </c>
       <c r="D8">
-        <v>1.028473400695454</v>
+        <v>1.028927576599215</v>
       </c>
       <c r="E8">
-        <v>1.027678836501345</v>
+        <v>1.027314966663457</v>
       </c>
       <c r="F8">
-        <v>1.036117049130177</v>
+        <v>1.036029853147516</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052223704942329</v>
+        <v>1.051008479683891</v>
       </c>
       <c r="J8">
-        <v>1.027964890834134</v>
+        <v>1.032401782100957</v>
       </c>
       <c r="K8">
-        <v>1.039281014428546</v>
+        <v>1.0397294593142</v>
       </c>
       <c r="L8">
-        <v>1.038496491647315</v>
+        <v>1.038137226736464</v>
       </c>
       <c r="M8">
-        <v>1.046829045037523</v>
+        <v>1.04674292992054</v>
       </c>
       <c r="N8">
-        <v>1.029424718888339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014764872473359</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045566266636032</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039185335960761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9959658857959695</v>
+        <v>1.003651126304215</v>
       </c>
       <c r="D9">
-        <v>1.020563573735297</v>
+        <v>1.024059674115323</v>
       </c>
       <c r="E9">
-        <v>1.01842468898326</v>
+        <v>1.019946012893256</v>
       </c>
       <c r="F9">
-        <v>1.026846744897617</v>
+        <v>1.029325614252612</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04908851885382</v>
+        <v>1.049086384136251</v>
       </c>
       <c r="J9">
-        <v>1.021661907731299</v>
+        <v>1.029075609429357</v>
       </c>
       <c r="K9">
-        <v>1.033331604370611</v>
+        <v>1.036774098191364</v>
       </c>
       <c r="L9">
-        <v>1.031225747435563</v>
+        <v>1.032723561499597</v>
       </c>
       <c r="M9">
-        <v>1.039518767357979</v>
+        <v>1.041960169661212</v>
       </c>
       <c r="N9">
-        <v>1.023112784826537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013659211834222</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041781049124616</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037092533557233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9885625520233485</v>
+        <v>0.9985255637816006</v>
       </c>
       <c r="D10">
-        <v>1.0150406714841</v>
+        <v>1.020743022126501</v>
       </c>
       <c r="E10">
-        <v>1.01200326663837</v>
+        <v>1.015045703941943</v>
       </c>
       <c r="F10">
-        <v>1.020393325344524</v>
+        <v>1.024892646771802</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046826570197924</v>
+        <v>1.047740628603944</v>
       </c>
       <c r="J10">
-        <v>1.017237422210532</v>
+        <v>1.026797803113829</v>
       </c>
       <c r="K10">
-        <v>1.029143570299842</v>
+        <v>1.034747589610899</v>
       </c>
       <c r="L10">
-        <v>1.026159128436093</v>
+        <v>1.029148515347553</v>
       </c>
       <c r="M10">
-        <v>1.034403882121641</v>
+        <v>1.038826545889148</v>
       </c>
       <c r="N10">
-        <v>1.018682016028834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012905350601392</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039352380035505</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03567647478296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9852654007184571</v>
+        <v>0.9965790760627483</v>
       </c>
       <c r="D11">
-        <v>1.012584914459994</v>
+        <v>1.019543062233079</v>
       </c>
       <c r="E11">
-        <v>1.009157317031526</v>
+        <v>1.014163818049874</v>
       </c>
       <c r="F11">
-        <v>1.017528232710377</v>
+        <v>1.024322434635511</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045803871512277</v>
+        <v>1.047385361269731</v>
       </c>
       <c r="J11">
-        <v>1.015264268226161</v>
+        <v>1.026094865225837</v>
       </c>
       <c r="K11">
-        <v>1.027273337197462</v>
+        <v>1.034105601867083</v>
       </c>
       <c r="L11">
-        <v>1.023908581609134</v>
+        <v>1.028823478974226</v>
       </c>
       <c r="M11">
-        <v>1.032126993388883</v>
+        <v>1.038799793704024</v>
       </c>
       <c r="N11">
-        <v>1.016706059939481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012694129081571</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039766768658698</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035255394194121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9840261921319517</v>
+        <v>0.9959617313898067</v>
       </c>
       <c r="D12">
-        <v>1.011662612379998</v>
+        <v>1.01917886068</v>
       </c>
       <c r="E12">
-        <v>1.008089859094492</v>
+        <v>1.014308188902175</v>
       </c>
       <c r="F12">
-        <v>1.016452845822572</v>
+        <v>1.02462067607069</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045417266683466</v>
+        <v>1.047338072481953</v>
       </c>
       <c r="J12">
-        <v>1.014522322654876</v>
+        <v>1.025937986783899</v>
       </c>
       <c r="K12">
-        <v>1.026569734871084</v>
+        <v>1.0339476226277</v>
       </c>
       <c r="L12">
-        <v>1.023063694207769</v>
+        <v>1.02916630630524</v>
       </c>
       <c r="M12">
-        <v>1.031271480736081</v>
+        <v>1.039290910253714</v>
       </c>
       <c r="N12">
-        <v>1.015963060720383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012658428232513</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040481049778099</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035143697841205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.984292675503408</v>
+        <v>0.9963342769829847</v>
       </c>
       <c r="D13">
-        <v>1.011860915249671</v>
+        <v>1.019445722495772</v>
       </c>
       <c r="E13">
-        <v>1.008319309243625</v>
+        <v>1.015260142983987</v>
       </c>
       <c r="F13">
-        <v>1.016684034198818</v>
+        <v>1.025622203795856</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045500503094006</v>
+        <v>1.047535846517629</v>
       </c>
       <c r="J13">
-        <v>1.014681888047332</v>
+        <v>1.026201399317588</v>
       </c>
       <c r="K13">
-        <v>1.026721069791567</v>
+        <v>1.034166804547036</v>
       </c>
       <c r="L13">
-        <v>1.023245336765485</v>
+        <v>1.030057635734263</v>
       </c>
       <c r="M13">
-        <v>1.031455440880891</v>
+        <v>1.040232009161418</v>
       </c>
       <c r="N13">
-        <v>1.016122852713998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012760065528348</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041501308418152</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035296174692786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9851632677195691</v>
+        <v>0.9970435919271888</v>
       </c>
       <c r="D14">
-        <v>1.012508886010293</v>
+        <v>1.019919563627004</v>
       </c>
       <c r="E14">
-        <v>1.00906929476811</v>
+        <v>1.016284866498623</v>
       </c>
       <c r="F14">
-        <v>1.017439571877766</v>
+        <v>1.026635706262089</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045772053289584</v>
+        <v>1.047784732881837</v>
       </c>
       <c r="J14">
-        <v>1.015203125456561</v>
+        <v>1.026575710889385</v>
       </c>
       <c r="K14">
-        <v>1.027215361367986</v>
+        <v>1.034491845040478</v>
       </c>
       <c r="L14">
-        <v>1.023838927734425</v>
+        <v>1.030922647666324</v>
       </c>
       <c r="M14">
-        <v>1.032056478517635</v>
+        <v>1.041088540278579</v>
       </c>
       <c r="N14">
-        <v>1.016644830340135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012893393966385</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042351373143295</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035527412884281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9856977233477968</v>
+        <v>0.9974350787207321</v>
       </c>
       <c r="D15">
-        <v>1.012906766189604</v>
+        <v>1.020177408802297</v>
       </c>
       <c r="E15">
-        <v>1.009529998745533</v>
+        <v>1.016726674211023</v>
       </c>
       <c r="F15">
-        <v>1.017903587527138</v>
+        <v>1.027055059331081</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045938465534839</v>
+        <v>1.047902786867158</v>
       </c>
       <c r="J15">
-        <v>1.015523067754889</v>
+        <v>1.026763214720295</v>
       </c>
       <c r="K15">
-        <v>1.027518717576472</v>
+        <v>1.034658711258198</v>
       </c>
       <c r="L15">
-        <v>1.024203461825159</v>
+        <v>1.031269681532442</v>
       </c>
       <c r="M15">
-        <v>1.032425488623782</v>
+        <v>1.041414980067493</v>
       </c>
       <c r="N15">
-        <v>1.016965226993225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012957695863514</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042646858013608</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035651261529712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9887793825667883</v>
+        <v>0.9995267247598492</v>
       </c>
       <c r="D16">
-        <v>1.015202258298145</v>
+        <v>1.02152697138079</v>
       </c>
       <c r="E16">
-        <v>1.012190721150683</v>
+        <v>1.018624650266426</v>
       </c>
       <c r="F16">
-        <v>1.020581936909912</v>
+        <v>1.028767230511166</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046893512652155</v>
+        <v>1.048448027412138</v>
       </c>
       <c r="J16">
-        <v>1.017367131332218</v>
+        <v>1.027682287278429</v>
       </c>
       <c r="K16">
-        <v>1.029266462978806</v>
+        <v>1.035482561872142</v>
       </c>
       <c r="L16">
-        <v>1.026307260629741</v>
+        <v>1.03262986582512</v>
       </c>
       <c r="M16">
-        <v>1.03455364595381</v>
+        <v>1.042600597067822</v>
       </c>
       <c r="N16">
-        <v>1.01881190935235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013259651649992</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043545329717595</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036236920514115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9906874203341168</v>
+        <v>1.000762976488925</v>
       </c>
       <c r="D17">
-        <v>1.016624626033283</v>
+        <v>1.02231716956146</v>
       </c>
       <c r="E17">
-        <v>1.013841850733022</v>
+        <v>1.019545301848008</v>
       </c>
       <c r="F17">
-        <v>1.02224269143778</v>
+        <v>1.029546464746016</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047480849242626</v>
+        <v>1.048734364179449</v>
       </c>
       <c r="J17">
-        <v>1.018508231725787</v>
+        <v>1.028191866177237</v>
       </c>
       <c r="K17">
-        <v>1.030347311728373</v>
+        <v>1.035944894759709</v>
       </c>
       <c r="L17">
-        <v>1.027611458210024</v>
+        <v>1.033219095472277</v>
       </c>
       <c r="M17">
-        <v>1.035871650257427</v>
+        <v>1.043055538485859</v>
       </c>
       <c r="N17">
-        <v>1.019954630239365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013421583811895</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043776168787087</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036566395437499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9917915760237584</v>
+        <v>1.001371702608899</v>
       </c>
       <c r="D18">
-        <v>1.017448097566493</v>
+        <v>1.022686530211246</v>
       </c>
       <c r="E18">
-        <v>1.014798650009249</v>
+        <v>1.019651054779093</v>
       </c>
       <c r="F18">
-        <v>1.023204596288015</v>
+        <v>1.02952794139464</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04781927509903</v>
+        <v>1.048814293283189</v>
       </c>
       <c r="J18">
-        <v>1.019168315059186</v>
+        <v>1.028382988643503</v>
       </c>
       <c r="K18">
-        <v>1.030972300614831</v>
+        <v>1.036124827050968</v>
       </c>
       <c r="L18">
-        <v>1.028366736821816</v>
+        <v>1.033138992746746</v>
       </c>
       <c r="M18">
-        <v>1.036634458651195</v>
+        <v>1.042855732570371</v>
       </c>
       <c r="N18">
-        <v>1.02061565096681</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013472535160375</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043381075085912</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036681982193949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9921665991500885</v>
+        <v>1.001417738741587</v>
       </c>
       <c r="D19">
-        <v>1.01772784686729</v>
+        <v>1.022686886490872</v>
       </c>
       <c r="E19">
-        <v>1.015123844310526</v>
+        <v>1.01900842826517</v>
       </c>
       <c r="F19">
-        <v>1.023531445901144</v>
+        <v>1.028777022617967</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04793397108316</v>
+        <v>1.048714649658917</v>
       </c>
       <c r="J19">
-        <v>1.019392465496027</v>
+        <v>1.028292977714671</v>
       </c>
       <c r="K19">
-        <v>1.031184492146391</v>
+        <v>1.036062670123704</v>
       </c>
       <c r="L19">
-        <v>1.028623357293857</v>
+        <v>1.032444095612628</v>
       </c>
       <c r="M19">
-        <v>1.036893558467468</v>
+        <v>1.042054868219328</v>
       </c>
       <c r="N19">
-        <v>1.020840119722981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01342740848908</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042423071175297</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036644427061064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9904836184263647</v>
+        <v>0.9998718955370147</v>
       </c>
       <c r="D20">
-        <v>1.016472661037643</v>
+        <v>1.021628833097194</v>
       </c>
       <c r="E20">
-        <v>1.013665352999158</v>
+        <v>1.016325809020334</v>
       </c>
       <c r="F20">
-        <v>1.022065213800476</v>
+        <v>1.026051291225771</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047418265239697</v>
+        <v>1.048107764680673</v>
       </c>
       <c r="J20">
-        <v>1.018386374388283</v>
+        <v>1.027407756289686</v>
       </c>
       <c r="K20">
-        <v>1.030231913488213</v>
+        <v>1.035301736344531</v>
       </c>
       <c r="L20">
-        <v>1.027472095558715</v>
+        <v>1.030087537319428</v>
       </c>
       <c r="M20">
-        <v>1.035730860578346</v>
+        <v>1.039651021975126</v>
       </c>
       <c r="N20">
-        <v>1.019832599850464</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013109537781172</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039994327333688</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036110333068819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9849073066410938</v>
+        <v>0.9959677121817339</v>
       </c>
       <c r="D21">
-        <v>1.012318358137981</v>
+        <v>1.019096438231319</v>
       </c>
       <c r="E21">
-        <v>1.008848732617146</v>
+        <v>1.012425651745163</v>
       </c>
       <c r="F21">
-        <v>1.017217397549494</v>
+        <v>1.022477337978253</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045692276202117</v>
+        <v>1.047033576149549</v>
       </c>
       <c r="J21">
-        <v>1.015049886743528</v>
+        <v>1.025634994476988</v>
       </c>
       <c r="K21">
-        <v>1.027070054107523</v>
+        <v>1.033724834799051</v>
       </c>
       <c r="L21">
-        <v>1.023664380129328</v>
+        <v>1.027175379197424</v>
       </c>
       <c r="M21">
-        <v>1.031879761456614</v>
+        <v>1.037045026448309</v>
       </c>
       <c r="N21">
-        <v>1.016491374010553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012518827659475</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037891039222393</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034998625839092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9813169510792137</v>
+        <v>0.9934801302505979</v>
       </c>
       <c r="D22">
-        <v>1.009647552834325</v>
+        <v>1.017484613893057</v>
       </c>
       <c r="E22">
-        <v>1.00576019618416</v>
+        <v>1.010013918012282</v>
       </c>
       <c r="F22">
-        <v>1.014104498749137</v>
+        <v>1.020281350459869</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044568021063143</v>
+        <v>1.046346450577066</v>
       </c>
       <c r="J22">
-        <v>1.012899642064927</v>
+        <v>1.024509178375856</v>
       </c>
       <c r="K22">
-        <v>1.025030282295273</v>
+        <v>1.032717476533178</v>
       </c>
       <c r="L22">
-        <v>1.021218399653113</v>
+        <v>1.025389573644958</v>
       </c>
       <c r="M22">
-        <v>1.029401627072039</v>
+        <v>1.035461459555948</v>
       </c>
       <c r="N22">
-        <v>1.014338075737872</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012144093267725</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036637746542494</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034272875106091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9832285255205154</v>
+        <v>0.9947964299886987</v>
       </c>
       <c r="D23">
-        <v>1.011069136679365</v>
+        <v>1.018331451366415</v>
       </c>
       <c r="E23">
-        <v>1.007403368884339</v>
+        <v>1.011292421677532</v>
       </c>
       <c r="F23">
-        <v>1.015761045026185</v>
+        <v>1.02144604125856</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045167793027844</v>
+        <v>1.046707668633564</v>
       </c>
       <c r="J23">
-        <v>1.014044646865244</v>
+        <v>1.025101717556597</v>
       </c>
       <c r="K23">
-        <v>1.026116647323897</v>
+        <v>1.033243689107497</v>
       </c>
       <c r="L23">
-        <v>1.022520129186003</v>
+        <v>1.026335735452286</v>
       </c>
       <c r="M23">
-        <v>1.030720872482459</v>
+        <v>1.036301031921153</v>
       </c>
       <c r="N23">
-        <v>1.015484706576339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012340484053326</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.037302215053112</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034635297468321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9905757347839005</v>
+        <v>0.9998948033216065</v>
       </c>
       <c r="D24">
-        <v>1.016541346516216</v>
+        <v>1.021629879808222</v>
       </c>
       <c r="E24">
-        <v>1.013745124087528</v>
+        <v>1.016259236929435</v>
       </c>
       <c r="F24">
-        <v>1.022145429234612</v>
+        <v>1.025968888020537</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047446557088296</v>
+        <v>1.048092895972443</v>
       </c>
       <c r="J24">
-        <v>1.018441453443981</v>
+        <v>1.027396903306121</v>
       </c>
       <c r="K24">
-        <v>1.030284073805898</v>
+        <v>1.035287507424282</v>
       </c>
       <c r="L24">
-        <v>1.027535084316037</v>
+        <v>1.03000671432372</v>
       </c>
       <c r="M24">
-        <v>1.03579449576395</v>
+        <v>1.039554808489742</v>
       </c>
       <c r="N24">
-        <v>1.019887757124738</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013102787239121</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039877367899679</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036072876213824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9987599818539933</v>
+        <v>1.005624753133753</v>
       </c>
       <c r="D25">
-        <v>1.02265084436973</v>
+        <v>1.025354238573032</v>
       </c>
       <c r="E25">
-        <v>1.020859718058834</v>
+        <v>1.021881743358063</v>
       </c>
       <c r="F25">
-        <v>1.029289612563075</v>
+        <v>1.031086691081115</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049928528665654</v>
+        <v>1.049609235205662</v>
       </c>
       <c r="J25">
-        <v>1.023329149741111</v>
+        <v>1.02996429340729</v>
       </c>
       <c r="K25">
-        <v>1.034907424122194</v>
+        <v>1.037571311337005</v>
       </c>
       <c r="L25">
-        <v>1.03314261940832</v>
+        <v>1.034149611125486</v>
       </c>
       <c r="M25">
-        <v>1.041449644382011</v>
+        <v>1.043220858692777</v>
       </c>
       <c r="N25">
-        <v>1.024782394511237</v>
+        <v>1.013955862668889</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042778797510713</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037684782289426</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010034301973656</v>
+        <v>1.009572955392369</v>
       </c>
       <c r="D2">
-        <v>1.028215814237363</v>
+        <v>1.027252213231374</v>
       </c>
       <c r="E2">
-        <v>1.026250869793314</v>
+        <v>1.026102050224802</v>
       </c>
       <c r="F2">
-        <v>1.035062356530753</v>
+        <v>1.03485904601629</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050732192953351</v>
+        <v>1.050260675432328</v>
       </c>
       <c r="J2">
-        <v>1.031918975639584</v>
+        <v>1.031471062979116</v>
       </c>
       <c r="K2">
-        <v>1.039295570012306</v>
+        <v>1.038344501283314</v>
       </c>
       <c r="L2">
-        <v>1.037356212220505</v>
+        <v>1.037209335516133</v>
       </c>
       <c r="M2">
-        <v>1.046053908123647</v>
+        <v>1.045853195851036</v>
       </c>
       <c r="N2">
-        <v>1.014603426536669</v>
+        <v>1.015590891300979</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045020955676467</v>
+        <v>1.04486210634103</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038855647472664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038191931505018</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022295245524634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013170914064823</v>
+        <v>1.012609688060952</v>
       </c>
       <c r="D3">
-        <v>1.030267557348039</v>
+        <v>1.029165941318756</v>
       </c>
       <c r="E3">
-        <v>1.029370759898665</v>
+        <v>1.029189220531902</v>
       </c>
       <c r="F3">
-        <v>1.037899450689397</v>
+        <v>1.037657107701179</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051516696159526</v>
+        <v>1.050969017300181</v>
       </c>
       <c r="J3">
-        <v>1.033308854624844</v>
+        <v>1.032762404711338</v>
       </c>
       <c r="K3">
-        <v>1.040527269918909</v>
+        <v>1.039438758380373</v>
       </c>
       <c r="L3">
-        <v>1.039641137869256</v>
+        <v>1.039461760311372</v>
       </c>
       <c r="M3">
-        <v>1.048069321558865</v>
+        <v>1.04782980627251</v>
       </c>
       <c r="N3">
-        <v>1.015065313344569</v>
+        <v>1.015931778775507</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04661600862553</v>
+        <v>1.046426449901695</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039723899969306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038962725824425</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022487173545802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015166825818589</v>
+        <v>1.014542547877552</v>
       </c>
       <c r="D4">
-        <v>1.03157638029874</v>
+        <v>1.030387296685038</v>
       </c>
       <c r="E4">
-        <v>1.031364044998496</v>
+        <v>1.031161978542392</v>
       </c>
       <c r="F4">
-        <v>1.039711416811667</v>
+        <v>1.039444420300665</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052006604425475</v>
+        <v>1.051410568791558</v>
       </c>
       <c r="J4">
-        <v>1.034190361748239</v>
+        <v>1.033581429945256</v>
       </c>
       <c r="K4">
-        <v>1.041308076735485</v>
+        <v>1.040132301512594</v>
       </c>
       <c r="L4">
-        <v>1.041098115151444</v>
+        <v>1.04089830873263</v>
       </c>
       <c r="M4">
-        <v>1.049353067849315</v>
+        <v>1.049088999200073</v>
       </c>
       <c r="N4">
-        <v>1.015358360940831</v>
+        <v>1.016148084364162</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047631998516681</v>
+        <v>1.047423007897873</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040276891219017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039454097886988</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022606379950435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016000449755118</v>
+        <v>1.015349951297831</v>
       </c>
       <c r="D5">
-        <v>1.032125829830756</v>
+        <v>1.03090034141223</v>
       </c>
       <c r="E5">
-        <v>1.032197132013967</v>
+        <v>1.031986553034878</v>
       </c>
       <c r="F5">
-        <v>1.040468533619851</v>
+        <v>1.04019128085269</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052210257787227</v>
+        <v>1.051594066372668</v>
       </c>
       <c r="J5">
-        <v>1.034559107241579</v>
+        <v>1.033924130945592</v>
       </c>
       <c r="K5">
-        <v>1.04163610983966</v>
+        <v>1.040423978887209</v>
       </c>
       <c r="L5">
-        <v>1.041706636048089</v>
+        <v>1.041498349159282</v>
       </c>
       <c r="M5">
-        <v>1.049888904806841</v>
+        <v>1.049614611602268</v>
       </c>
       <c r="N5">
-        <v>1.015481210793861</v>
+        <v>1.016238802027727</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.0480560732781</v>
+        <v>1.047838990810399</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040516002981245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.0396682152401</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022656363035805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016142890891095</v>
+        <v>1.01548791785951</v>
       </c>
       <c r="D6">
-        <v>1.032222241422061</v>
+        <v>1.030990591104993</v>
       </c>
       <c r="E6">
-        <v>1.032337949866446</v>
+        <v>1.032125911782513</v>
       </c>
       <c r="F6">
-        <v>1.040596463642025</v>
+        <v>1.040317459988477</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052246500876818</v>
+        <v>1.051626887026832</v>
       </c>
       <c r="J6">
-        <v>1.034623636222033</v>
+        <v>1.033984213322405</v>
       </c>
       <c r="K6">
-        <v>1.041695331624859</v>
+        <v>1.040477045569025</v>
       </c>
       <c r="L6">
-        <v>1.041809786562132</v>
+        <v>1.041600045818506</v>
       </c>
       <c r="M6">
-        <v>1.049979714563718</v>
+        <v>1.049703675571519</v>
       </c>
       <c r="N6">
-        <v>1.01550300150944</v>
+        <v>1.016254933535427</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048127942365414</v>
+        <v>1.047909478258938</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040566615930064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03971534557223</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022665960489973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015185830247015</v>
+        <v>1.014567529522538</v>
       </c>
       <c r="D7">
-        <v>1.03159553348407</v>
+        <v>1.030410426660691</v>
       </c>
       <c r="E7">
-        <v>1.03137865558356</v>
+        <v>1.031178794448369</v>
       </c>
       <c r="F7">
-        <v>1.03972456953345</v>
+        <v>1.039459696426281</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05201546545416</v>
+        <v>1.051422362659757</v>
       </c>
       <c r="J7">
-        <v>1.034202947780964</v>
+        <v>1.033599839833669</v>
       </c>
       <c r="K7">
-        <v>1.041324137231153</v>
+        <v>1.040152289198911</v>
       </c>
       <c r="L7">
-        <v>1.041109682923266</v>
+        <v>1.040912056330768</v>
       </c>
       <c r="M7">
-        <v>1.049363227709355</v>
+        <v>1.049101258115335</v>
       </c>
       <c r="N7">
-        <v>1.015363342891375</v>
+        <v>1.016179316322268</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047640039286122</v>
+        <v>1.047432709915281</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040308344609723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03949032843887</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022611819187435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011111050616877</v>
+        <v>1.010635388803529</v>
       </c>
       <c r="D8">
-        <v>1.028927576599215</v>
+        <v>1.027930929699495</v>
       </c>
       <c r="E8">
-        <v>1.027314966663457</v>
+        <v>1.027162370072441</v>
       </c>
       <c r="F8">
-        <v>1.036029853147516</v>
+        <v>1.035820270754547</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051008479683891</v>
+        <v>1.050521013564742</v>
       </c>
       <c r="J8">
-        <v>1.032401782100957</v>
+        <v>1.031939515732632</v>
       </c>
       <c r="K8">
-        <v>1.0397294593142</v>
+        <v>1.038745396885144</v>
       </c>
       <c r="L8">
-        <v>1.038137226736464</v>
+        <v>1.037986562532105</v>
       </c>
       <c r="M8">
-        <v>1.04674292992054</v>
+        <v>1.046535946400091</v>
       </c>
       <c r="N8">
-        <v>1.014764872473359</v>
+        <v>1.015793560156101</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045566266636032</v>
+        <v>1.045402454180004</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039185335960761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038500559945801</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022369481713741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003651126304215</v>
+        <v>1.003418927190517</v>
       </c>
       <c r="D9">
-        <v>1.024059674115323</v>
+        <v>1.023395180210389</v>
       </c>
       <c r="E9">
-        <v>1.019946012893256</v>
+        <v>1.019874379152864</v>
       </c>
       <c r="F9">
-        <v>1.029325614252612</v>
+        <v>1.029210987454708</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049086384136251</v>
+        <v>1.048781971779178</v>
       </c>
       <c r="J9">
-        <v>1.029075609429357</v>
+        <v>1.028851529317108</v>
       </c>
       <c r="K9">
-        <v>1.036774098191364</v>
+        <v>1.036119757175002</v>
       </c>
       <c r="L9">
-        <v>1.032723561499597</v>
+        <v>1.032653032745285</v>
       </c>
       <c r="M9">
-        <v>1.041960169661212</v>
+        <v>1.041847270330415</v>
       </c>
       <c r="N9">
-        <v>1.013659211834222</v>
+        <v>1.014987649925565</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041781049124616</v>
+        <v>1.041691697026891</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037092533557233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036640607216523</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021893914217111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9985255637816006</v>
+        <v>0.9984913732404634</v>
       </c>
       <c r="D10">
-        <v>1.020743022126501</v>
+        <v>1.020327704310644</v>
       </c>
       <c r="E10">
-        <v>1.015045703941943</v>
+        <v>1.015041893209724</v>
       </c>
       <c r="F10">
-        <v>1.024892646771802</v>
+        <v>1.024854097504568</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047740628603944</v>
+        <v>1.047576233036753</v>
       </c>
       <c r="J10">
-        <v>1.026797803113829</v>
+        <v>1.02676497484754</v>
       </c>
       <c r="K10">
-        <v>1.034747589610899</v>
+        <v>1.034339385577154</v>
       </c>
       <c r="L10">
-        <v>1.029148515347553</v>
+        <v>1.029144770804878</v>
       </c>
       <c r="M10">
-        <v>1.038826545889148</v>
+        <v>1.038788649719536</v>
       </c>
       <c r="N10">
-        <v>1.012905350601392</v>
+        <v>1.014555541807207</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039352380035505</v>
+        <v>1.039322389575473</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03567647478296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03540025862104</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021564597503846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9965790760627483</v>
+        <v>0.9966567487018547</v>
       </c>
       <c r="D11">
-        <v>1.019543062233079</v>
+        <v>1.019243338086175</v>
       </c>
       <c r="E11">
-        <v>1.014163818049874</v>
+        <v>1.014194320908204</v>
       </c>
       <c r="F11">
-        <v>1.024322434635511</v>
+        <v>1.024324260092878</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047385361269731</v>
+        <v>1.047291076578474</v>
       </c>
       <c r="J11">
-        <v>1.026094865225837</v>
+        <v>1.026169275285412</v>
       </c>
       <c r="K11">
-        <v>1.034105601867083</v>
+        <v>1.033811254149424</v>
       </c>
       <c r="L11">
-        <v>1.028823478974226</v>
+        <v>1.028853427329957</v>
       </c>
       <c r="M11">
-        <v>1.038799793704024</v>
+        <v>1.038801586824098</v>
       </c>
       <c r="N11">
-        <v>1.012694129081571</v>
+        <v>1.014641000887371</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039766768658698</v>
+        <v>1.039768186995019</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035255394194121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035062895255058</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021491328299592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9959617313898067</v>
+        <v>0.9960775815332066</v>
       </c>
       <c r="D12">
-        <v>1.01917886068</v>
+        <v>1.018915395571034</v>
       </c>
       <c r="E12">
-        <v>1.014308188902175</v>
+        <v>1.014346648821165</v>
       </c>
       <c r="F12">
-        <v>1.02462067607069</v>
+        <v>1.024635405489014</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047338072481953</v>
+        <v>1.047266879165231</v>
       </c>
       <c r="J12">
-        <v>1.025937986783899</v>
+        <v>1.026048877872866</v>
       </c>
       <c r="K12">
-        <v>1.0339476226277</v>
+        <v>1.033688962500325</v>
       </c>
       <c r="L12">
-        <v>1.02916630630524</v>
+        <v>1.029204056272494</v>
       </c>
       <c r="M12">
-        <v>1.039290910253714</v>
+        <v>1.039305374831387</v>
       </c>
       <c r="N12">
-        <v>1.012658428232513</v>
+        <v>1.014721473508688</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040481049778099</v>
+        <v>1.040492487224968</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035143697841205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034976432932524</v>
+      </c>
+      <c r="S12">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T12">
+        <v>1.021484993465317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9963342769829847</v>
+        <v>0.9964248017634872</v>
       </c>
       <c r="D13">
-        <v>1.019445722495772</v>
+        <v>1.019153356506093</v>
       </c>
       <c r="E13">
-        <v>1.015260142983987</v>
+        <v>1.015284800916936</v>
       </c>
       <c r="F13">
-        <v>1.025622203795856</v>
+        <v>1.025627024631267</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047535846517629</v>
+        <v>1.047448511703847</v>
       </c>
       <c r="J13">
-        <v>1.026201399317588</v>
+        <v>1.026288067280612</v>
       </c>
       <c r="K13">
-        <v>1.034166804547036</v>
+        <v>1.033879749377635</v>
       </c>
       <c r="L13">
-        <v>1.030057635734263</v>
+        <v>1.030081841116369</v>
       </c>
       <c r="M13">
-        <v>1.040232009161418</v>
+        <v>1.040236743823465</v>
       </c>
       <c r="N13">
-        <v>1.012760065528348</v>
+        <v>1.014771636554249</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041501308418152</v>
+        <v>1.041505051278591</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035296174692786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035108588314801</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02153362952443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9970435919271888</v>
+        <v>0.9970879638877445</v>
       </c>
       <c r="D14">
-        <v>1.019919563627004</v>
+        <v>1.019577781251293</v>
       </c>
       <c r="E14">
-        <v>1.016284866498623</v>
+        <v>1.016291085377128</v>
       </c>
       <c r="F14">
-        <v>1.026635706262089</v>
+        <v>1.026623615623338</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047784732881837</v>
+        <v>1.047668472082137</v>
       </c>
       <c r="J14">
-        <v>1.026575710889385</v>
+        <v>1.02661821875995</v>
       </c>
       <c r="K14">
-        <v>1.034491845040478</v>
+        <v>1.034156195975025</v>
       </c>
       <c r="L14">
-        <v>1.030922647666324</v>
+        <v>1.030928753955991</v>
       </c>
       <c r="M14">
-        <v>1.041088540278579</v>
+        <v>1.041076662852626</v>
       </c>
       <c r="N14">
-        <v>1.012893393966385</v>
+        <v>1.014794153000921</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042351373143295</v>
+        <v>1.042341985023406</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035527412884281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03530560369928</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021592949039255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9974350787207321</v>
+        <v>0.9974547822786576</v>
       </c>
       <c r="D15">
-        <v>1.020177408802297</v>
+        <v>1.019809588529994</v>
       </c>
       <c r="E15">
-        <v>1.016726674211023</v>
+        <v>1.016724204051634</v>
       </c>
       <c r="F15">
-        <v>1.027055059331081</v>
+        <v>1.027034067876862</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047902786867158</v>
+        <v>1.047771068351341</v>
       </c>
       <c r="J15">
-        <v>1.026763214720295</v>
+        <v>1.026782097599057</v>
       </c>
       <c r="K15">
-        <v>1.034658711258198</v>
+        <v>1.034297442412577</v>
       </c>
       <c r="L15">
-        <v>1.031269681532442</v>
+        <v>1.031267255738549</v>
       </c>
       <c r="M15">
-        <v>1.041414980067493</v>
+        <v>1.041394355881595</v>
       </c>
       <c r="N15">
-        <v>1.012957695863514</v>
+        <v>1.014797350310926</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042646858013608</v>
+        <v>1.042630556732456</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035651261529712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035411907582397</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021621118726694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9995267247598492</v>
+        <v>0.9994246362087718</v>
       </c>
       <c r="D16">
-        <v>1.02152697138079</v>
+        <v>1.021029262331478</v>
       </c>
       <c r="E16">
-        <v>1.018624650266426</v>
+        <v>1.018583312868297</v>
       </c>
       <c r="F16">
-        <v>1.028767230511166</v>
+        <v>1.028702278300207</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048448027412138</v>
+        <v>1.048238900937143</v>
       </c>
       <c r="J16">
-        <v>1.027682287278429</v>
+        <v>1.027584242174248</v>
       </c>
       <c r="K16">
-        <v>1.035482561872142</v>
+        <v>1.034993336968205</v>
       </c>
       <c r="L16">
-        <v>1.03262986582512</v>
+        <v>1.032589237870804</v>
       </c>
       <c r="M16">
-        <v>1.042600597067822</v>
+        <v>1.042536731468676</v>
       </c>
       <c r="N16">
-        <v>1.013259651649992</v>
+        <v>1.014801446637509</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043545329717595</v>
+        <v>1.043494849141314</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036236920514115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035907397273381</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021748450899114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000762976488925</v>
+        <v>1.00059882041687</v>
       </c>
       <c r="D17">
-        <v>1.02231716956146</v>
+        <v>1.021750636575197</v>
       </c>
       <c r="E17">
-        <v>1.019545301848008</v>
+        <v>1.019485205061925</v>
       </c>
       <c r="F17">
-        <v>1.029546464746016</v>
+        <v>1.029458692638128</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048734364179449</v>
+        <v>1.048484540404972</v>
       </c>
       <c r="J17">
-        <v>1.028191866177237</v>
+        <v>1.028034006272899</v>
       </c>
       <c r="K17">
-        <v>1.035944894759709</v>
+        <v>1.035387751383449</v>
       </c>
       <c r="L17">
-        <v>1.033219095472277</v>
+        <v>1.033160001068866</v>
       </c>
       <c r="M17">
-        <v>1.043055538485859</v>
+        <v>1.042969194107656</v>
       </c>
       <c r="N17">
-        <v>1.013421583811895</v>
+        <v>1.014821452745554</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043776168787087</v>
+        <v>1.043707913788369</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036566395437499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036189099217849</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02181577545203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001371702608899</v>
+        <v>1.001182639759883</v>
       </c>
       <c r="D18">
-        <v>1.022686530211246</v>
+        <v>1.022091768612688</v>
       </c>
       <c r="E18">
-        <v>1.019651054779093</v>
+        <v>1.019584912891585</v>
       </c>
       <c r="F18">
-        <v>1.02952794139464</v>
+        <v>1.029430794196609</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048814293283189</v>
+        <v>1.048547598904719</v>
       </c>
       <c r="J18">
-        <v>1.028382988643503</v>
+        <v>1.028201042721134</v>
       </c>
       <c r="K18">
-        <v>1.036124827050968</v>
+        <v>1.035539762133199</v>
       </c>
       <c r="L18">
-        <v>1.033138992746746</v>
+        <v>1.033073936752449</v>
       </c>
       <c r="M18">
-        <v>1.042855732570371</v>
+        <v>1.042760141356127</v>
       </c>
       <c r="N18">
-        <v>1.013472535160375</v>
+        <v>1.014815942755478</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043381075085912</v>
+        <v>1.043305494816499</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036681982193949</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036283808702311</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021832261700579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001417738741587</v>
+        <v>1.001232283682522</v>
       </c>
       <c r="D19">
-        <v>1.022686886490872</v>
+        <v>1.022097207511869</v>
       </c>
       <c r="E19">
-        <v>1.01900842826517</v>
+        <v>1.018946285554783</v>
       </c>
       <c r="F19">
-        <v>1.028777022617967</v>
+        <v>1.028681143305713</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048714649658917</v>
+        <v>1.048450192766803</v>
       </c>
       <c r="J19">
-        <v>1.028292977714671</v>
+        <v>1.028114462027431</v>
       </c>
       <c r="K19">
-        <v>1.036062670123704</v>
+        <v>1.035482553607616</v>
       </c>
       <c r="L19">
-        <v>1.032444095612628</v>
+        <v>1.032382969332552</v>
       </c>
       <c r="M19">
-        <v>1.042054868219328</v>
+        <v>1.041960519265476</v>
       </c>
       <c r="N19">
-        <v>1.01342740848908</v>
+        <v>1.014770860675646</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042423071175297</v>
+        <v>1.042348448855847</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036644427061064</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03625037661851</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021806256536047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9998718955370147</v>
+        <v>0.9997674586292929</v>
       </c>
       <c r="D20">
-        <v>1.021628833097194</v>
+        <v>1.021135491029864</v>
       </c>
       <c r="E20">
-        <v>1.016325809020334</v>
+        <v>1.016296755951795</v>
       </c>
       <c r="F20">
-        <v>1.026051291225771</v>
+        <v>1.02598625434448</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048107764680673</v>
+        <v>1.04789765886562</v>
       </c>
       <c r="J20">
-        <v>1.027407756289686</v>
+        <v>1.027307347300256</v>
       </c>
       <c r="K20">
-        <v>1.035301736344531</v>
+        <v>1.034816607564674</v>
       </c>
       <c r="L20">
-        <v>1.030087537319428</v>
+        <v>1.030058974179852</v>
       </c>
       <c r="M20">
-        <v>1.039651021975126</v>
+        <v>1.039587055293388</v>
       </c>
       <c r="N20">
-        <v>1.013109537781172</v>
+        <v>1.014602053632028</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039994327333688</v>
+        <v>1.039943704458602</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036110333068819</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035783831161349</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021655612441619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9959677121817339</v>
+        <v>0.9961028732380849</v>
       </c>
       <c r="D21">
-        <v>1.019096438231319</v>
+        <v>1.018856359390895</v>
       </c>
       <c r="E21">
-        <v>1.012425651745163</v>
+        <v>1.012485721568677</v>
       </c>
       <c r="F21">
-        <v>1.022477337978253</v>
+        <v>1.022501511009257</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047033576149549</v>
+        <v>1.04697408695226</v>
       </c>
       <c r="J21">
-        <v>1.025634994476988</v>
+        <v>1.02576444021369</v>
       </c>
       <c r="K21">
-        <v>1.033724834799051</v>
+        <v>1.033489086778159</v>
       </c>
       <c r="L21">
-        <v>1.027175379197424</v>
+        <v>1.027234347156335</v>
       </c>
       <c r="M21">
-        <v>1.037045026448309</v>
+        <v>1.037068767300724</v>
       </c>
       <c r="N21">
-        <v>1.012518827659475</v>
+        <v>1.014608501066809</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037891039222393</v>
+        <v>1.037909828583387</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034998625839092</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034848772071826</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021407500420629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9934801302505979</v>
+        <v>0.9937657278194248</v>
       </c>
       <c r="D22">
-        <v>1.017484613893057</v>
+        <v>1.017403788773869</v>
       </c>
       <c r="E22">
-        <v>1.010013918012282</v>
+        <v>1.01013136891178</v>
       </c>
       <c r="F22">
-        <v>1.020281350459869</v>
+        <v>1.020361297841929</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046346450577066</v>
+        <v>1.046381184662375</v>
       </c>
       <c r="J22">
-        <v>1.024509178375856</v>
+        <v>1.024782009169077</v>
       </c>
       <c r="K22">
-        <v>1.032717476533178</v>
+        <v>1.032638181617267</v>
       </c>
       <c r="L22">
-        <v>1.025389573644958</v>
+        <v>1.025504758209511</v>
       </c>
       <c r="M22">
-        <v>1.035461459555948</v>
+        <v>1.035539904480229</v>
       </c>
       <c r="N22">
-        <v>1.012144093267725</v>
+        <v>1.014604785385831</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036637746542494</v>
+        <v>1.036699830772792</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034272875106091</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034232338805996</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02124612527194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9947964299886987</v>
+        <v>0.9949923610968547</v>
       </c>
       <c r="D23">
-        <v>1.018331451366415</v>
+        <v>1.018159151478304</v>
       </c>
       <c r="E23">
-        <v>1.011292421677532</v>
+        <v>1.011375169217944</v>
       </c>
       <c r="F23">
-        <v>1.02144604125856</v>
+        <v>1.021493073526848</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046707668633564</v>
+        <v>1.046687571915365</v>
       </c>
       <c r="J23">
-        <v>1.025101717556597</v>
+        <v>1.025289142428534</v>
       </c>
       <c r="K23">
-        <v>1.033243689107497</v>
+        <v>1.033074569467585</v>
       </c>
       <c r="L23">
-        <v>1.026335735452286</v>
+        <v>1.026416928282732</v>
       </c>
       <c r="M23">
-        <v>1.036301031921153</v>
+        <v>1.036347203206479</v>
       </c>
       <c r="N23">
-        <v>1.012340484053326</v>
+        <v>1.014563290780681</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037302215053112</v>
+        <v>1.037338756691879</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034635297468321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034530308837171</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021327283274793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9998948033216065</v>
+        <v>0.9997898868419457</v>
       </c>
       <c r="D24">
-        <v>1.021629879808222</v>
+        <v>1.021136003235007</v>
       </c>
       <c r="E24">
-        <v>1.016259236929435</v>
+        <v>1.016230509897581</v>
       </c>
       <c r="F24">
-        <v>1.025968888020537</v>
+        <v>1.025903756295488</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048092895972443</v>
+        <v>1.047882423601009</v>
       </c>
       <c r="J24">
-        <v>1.027396903306121</v>
+        <v>1.027296027298617</v>
       </c>
       <c r="K24">
-        <v>1.035287507424282</v>
+        <v>1.034801842485059</v>
       </c>
       <c r="L24">
-        <v>1.03000671432372</v>
+        <v>1.029978471182684</v>
       </c>
       <c r="M24">
-        <v>1.039554808489742</v>
+        <v>1.039490747374693</v>
       </c>
       <c r="N24">
-        <v>1.013102787239121</v>
+        <v>1.014592846739932</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039877367899679</v>
+        <v>1.039826667776659</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036072876213824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035743321398946</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021648898638744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005624753133753</v>
+        <v>1.005319608630103</v>
       </c>
       <c r="D25">
-        <v>1.025354238573032</v>
+        <v>1.024596066432294</v>
       </c>
       <c r="E25">
-        <v>1.021881743358063</v>
+        <v>1.021785227512139</v>
       </c>
       <c r="F25">
-        <v>1.031086691081115</v>
+        <v>1.030943863135986</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049609235205662</v>
+        <v>1.049252336672793</v>
       </c>
       <c r="J25">
-        <v>1.02996429340729</v>
+        <v>1.029669263446394</v>
       </c>
       <c r="K25">
-        <v>1.037571311337005</v>
+        <v>1.036824192320728</v>
       </c>
       <c r="L25">
-        <v>1.034149611125486</v>
+        <v>1.034054513356186</v>
       </c>
       <c r="M25">
-        <v>1.043220858692777</v>
+        <v>1.043080082202166</v>
       </c>
       <c r="N25">
-        <v>1.013955862668889</v>
+        <v>1.01517174571961</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042778797510713</v>
+        <v>1.042667382699423</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037684782289426</v>
+        <v>1.037170062755095</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022025096858156</v>
       </c>
     </row>
   </sheetData>
